--- a/app/config/tables/deployment/forms/deploy_to_specific/deploy_to_specific.xlsx
+++ b/app/config/tables/deployment/forms/deploy_to_specific/deploy_to_specific.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="99">
   <si>
     <t>type</t>
   </si>
@@ -143,181 +143,184 @@
     <t>No</t>
   </si>
   <si>
+    <t>min_range</t>
+  </si>
+  <si>
+    <t>max_range</t>
+  </si>
+  <si>
+    <t>note</t>
+  </si>
+  <si>
+    <t>pre-deployment</t>
+  </si>
+  <si>
+    <t>We will now distribute the appropriate item pack</t>
+  </si>
+  <si>
+    <t>barcode</t>
+  </si>
+  <si>
+    <t>Scan an item pack barcode within the range of {{data.min_range}} to {{data.max_range}}</t>
+  </si>
+  <si>
+    <t>item_scan</t>
+  </si>
+  <si>
+    <t>if</t>
+  </si>
+  <si>
+    <t>(data('scanned_item_pack_barcode') &gt; data('maxRange')) || (data('scanned_item_pack_barcode') &lt; data('minRange'))</t>
+  </si>
+  <si>
+    <t>select_one</t>
+  </si>
+  <si>
+    <t>try_again</t>
+  </si>
+  <si>
+    <t>Unauthorized Item Pack! Do not distribute this  item pack. Would you like to scan a different item pack?</t>
+  </si>
+  <si>
+    <t>selected(data('try_again'),'yes')</t>
+  </si>
+  <si>
+    <t>goto item_scan</t>
+  </si>
+  <si>
+    <t>end if</t>
+  </si>
+  <si>
+    <t>else</t>
+  </si>
+  <si>
+    <t>This item pack is authorized. Please distribute this item pack.</t>
+  </si>
+  <si>
+    <t>linked_table</t>
+  </si>
+  <si>
+    <t>Please click the pencil icon to record distribution</t>
+  </si>
+  <si>
+    <t>begin screen</t>
+  </si>
+  <si>
+    <t>Please continue to the next screen if you have clicked the pencil icon to record distribution</t>
+  </si>
+  <si>
+    <t>async_assign_single_string</t>
+  </si>
+  <si>
+    <t>is_distributed_value_query</t>
+  </si>
+  <si>
+    <t>end screen</t>
+  </si>
+  <si>
+    <t>data('is_distributed') == 'true'</t>
+  </si>
+  <si>
+    <t>pre-summary</t>
+  </si>
+  <si>
+    <t>Since the authorized item pack was successfully distributed, we will complete now complete a brief report.</t>
+  </si>
+  <si>
+    <t>assign</t>
+  </si>
+  <si>
+    <t>now()</t>
+  </si>
+  <si>
+    <t>What is the name of the distributor?</t>
+  </si>
+  <si>
+    <t>What is the name of the distribution site?</t>
+  </si>
+  <si>
+    <t>thanks</t>
+  </si>
+  <si>
+    <t>Thank you for completing the post-distribution survey. Continue to the next screen to finalize.</t>
+  </si>
+  <si>
+    <t>Would you like to scan a different item pack instead?</t>
+  </si>
+  <si>
+    <t>no_report_option</t>
+  </si>
+  <si>
+    <t>Since no item pack was successfully distributed, we will not fill out a post-distribution report.</t>
+  </si>
+  <si>
+    <t>clause</t>
+  </si>
+  <si>
+    <t>condition</t>
+  </si>
+  <si>
+    <t>values_list</t>
+  </si>
+  <si>
+    <t>display.hint</t>
+  </si>
+  <si>
+    <t>branch_label</t>
+  </si>
+  <si>
+    <t>calculation</t>
+  </si>
+  <si>
+    <t>model.isSessionVariable</t>
+  </si>
+  <si>
+    <t>distribution</t>
+  </si>
+  <si>
+    <t>query_name</t>
+  </si>
+  <si>
+    <t>query_type</t>
+  </si>
+  <si>
+    <t>linked_form_id</t>
+  </si>
+  <si>
+    <t>linked_table_id</t>
+  </si>
+  <si>
+    <t>selection</t>
+  </si>
+  <si>
+    <t>selectionArgs</t>
+  </si>
+  <si>
+    <t>fieldName</t>
+  </si>
+  <si>
+    <t>auxillaryHash</t>
+  </si>
+  <si>
+    <t>prompt_type_name</t>
+  </si>
+  <si>
+    <t>Deployment To Specific</t>
+  </si>
+  <si>
     <t>number</t>
   </si>
   <si>
-    <t>min_range</t>
-  </si>
-  <si>
-    <t>max_range</t>
-  </si>
-  <si>
-    <t>note</t>
-  </si>
-  <si>
-    <t>pre-deployment</t>
-  </si>
-  <si>
-    <t>We will now distribute the appropriate item pack</t>
-  </si>
-  <si>
-    <t>barcode</t>
-  </si>
-  <si>
-    <t>Scan an item pack barcode within the range of {{data.min_range}} to {{data.max_range}}</t>
-  </si>
-  <si>
-    <t>item_scan</t>
-  </si>
-  <si>
-    <t>if</t>
-  </si>
-  <si>
-    <t>(data('scanned_item_pack_barcode') &gt; data('maxRange')) || (data('scanned_item_pack_barcode') &lt; data('minRange'))</t>
-  </si>
-  <si>
-    <t>select_one</t>
-  </si>
-  <si>
-    <t>try_again</t>
-  </si>
-  <si>
-    <t>Unauthorized Item Pack! Do not distribute this  item pack. Would you like to scan a different item pack?</t>
-  </si>
-  <si>
-    <t>selected(data('try_again'),'yes')</t>
-  </si>
-  <si>
-    <t>goto item_scan</t>
-  </si>
-  <si>
-    <t>end if</t>
-  </si>
-  <si>
-    <t>else</t>
-  </si>
-  <si>
-    <t>This item pack is authorized. Please distribute this item pack.</t>
-  </si>
-  <si>
-    <t>linked_table</t>
-  </si>
-  <si>
-    <t>Please click the pencil icon to record distribution</t>
-  </si>
-  <si>
-    <t>begin screen</t>
-  </si>
-  <si>
-    <t>Please continue to the next screen if you have clicked the pencil icon to record distribution</t>
-  </si>
-  <si>
-    <t>async_assign_single_string</t>
-  </si>
-  <si>
-    <t>is_distributed_value_query</t>
-  </si>
-  <si>
-    <t>end screen</t>
-  </si>
-  <si>
-    <t>data('is_distributed') == 'true'</t>
-  </si>
-  <si>
-    <t>pre-summary</t>
-  </si>
-  <si>
-    <t>Since the authorized item pack was successfully distributed, we will complete now complete a brief report.</t>
-  </si>
-  <si>
-    <t>assign</t>
-  </si>
-  <si>
-    <t>now()</t>
-  </si>
-  <si>
-    <t>What is the name of the distributor?</t>
-  </si>
-  <si>
-    <t>What is the name of the distribution site?</t>
-  </si>
-  <si>
-    <t>thanks</t>
-  </si>
-  <si>
-    <t>Thank you for completing the post-distribution survey. Continue to the next screen to finalize.</t>
-  </si>
-  <si>
-    <t>Would you like to scan a different item pack instead?</t>
-  </si>
-  <si>
-    <t>no_report_option</t>
-  </si>
-  <si>
-    <t>Since no item pack was successfully distributed, we will not fill out a post-distribution report.</t>
-  </si>
-  <si>
-    <t>clause</t>
-  </si>
-  <si>
-    <t>condition</t>
-  </si>
-  <si>
-    <t>values_list</t>
-  </si>
-  <si>
-    <t>display.hint</t>
-  </si>
-  <si>
-    <t>branch_label</t>
-  </si>
-  <si>
-    <t>calculation</t>
-  </si>
-  <si>
-    <t>model.isSessionVariable</t>
-  </si>
-  <si>
-    <t>distribution</t>
-  </si>
-  <si>
-    <t>query_name</t>
-  </si>
-  <si>
-    <t>query_type</t>
-  </si>
-  <si>
-    <t>linked_form_id</t>
-  </si>
-  <si>
-    <t>linked_table_id</t>
-  </si>
-  <si>
-    <t>selection</t>
-  </si>
-  <si>
-    <t>selectionArgs</t>
-  </si>
-  <si>
-    <t>fieldName</t>
-  </si>
-  <si>
-    <t>auxillaryHash</t>
-  </si>
-  <si>
-    <t>prompt_type_name</t>
-  </si>
-  <si>
-    <t>Deployment To Specific</t>
-  </si>
-  <si>
-    <t>[data('distribution_id')]</t>
-  </si>
-  <si>
-    <t>'distribution_id='+opendatakit.encodeURIDataElement('distribution_id')</t>
-  </si>
-  <si>
-    <t>distribution _id = ?</t>
+    <t>[data('beneficiary_code'), data('distribution_id')]</t>
+  </si>
+  <si>
+    <t>'beneficiary_code='+opendatakit.encodeURIDataElement('beneficiary_code')+ '&amp;_id='+opendatakit.encodeURIDataElement('distribution_id')</t>
+  </si>
+  <si>
+    <t>beneficiary_code = ? and distribution_id = ?</t>
+  </si>
+  <si>
+    <t>set_is_distributed</t>
   </si>
 </sst>
 </file>
@@ -504,7 +507,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -543,7 +546,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -878,7 +880,7 @@
   <dimension ref="A1:B15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B21" sqref="B21"/>
+      <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -993,18 +995,18 @@
     </row>
     <row r="14" spans="1:2" ht="23">
       <c r="A14" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="B14" s="4" t="s">
         <v>39</v>
-      </c>
-      <c r="B14" s="4" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="15" spans="1:2" ht="23">
       <c r="A15" s="3" t="s">
-        <v>39</v>
+        <v>94</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
   </sheetData>
@@ -1076,7 +1078,7 @@
       </c>
       <c r="B5" s="9"/>
       <c r="C5" s="10" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="23">
@@ -1177,8 +1179,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U31"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+    <sheetView topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="D26" sqref="D26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -1196,16 +1198,16 @@
   <sheetData>
     <row r="1" spans="1:21" ht="23">
       <c r="A1" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="B1" s="6" t="s">
         <v>77</v>
-      </c>
-      <c r="B1" s="6" t="s">
-        <v>78</v>
       </c>
       <c r="C1" s="30" t="s">
         <v>0</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E1" s="31" t="s">
         <v>1</v>
@@ -1214,30 +1216,30 @@
         <v>30</v>
       </c>
       <c r="G1" s="33" t="s">
+        <v>79</v>
+      </c>
+      <c r="H1" s="34" t="s">
         <v>80</v>
       </c>
-      <c r="H1" s="34" t="s">
+      <c r="I1" t="s">
         <v>81</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>82</v>
-      </c>
-      <c r="J1" t="s">
-        <v>83</v>
       </c>
     </row>
     <row r="2" spans="1:21" ht="23">
       <c r="A2" s="12"/>
       <c r="B2" s="13"/>
       <c r="C2" s="14" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D2" s="14"/>
       <c r="E2" s="15" t="s">
+        <v>42</v>
+      </c>
+      <c r="F2" s="16" t="s">
         <v>43</v>
-      </c>
-      <c r="F2" s="16" t="s">
-        <v>44</v>
       </c>
       <c r="G2" s="18"/>
       <c r="H2" s="19"/>
@@ -1259,18 +1261,18 @@
       <c r="A3" s="20"/>
       <c r="B3" s="21"/>
       <c r="C3" s="22" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D3" s="22"/>
       <c r="E3" s="23" t="s">
         <v>9</v>
       </c>
       <c r="F3" s="24" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G3" s="25"/>
       <c r="H3" s="26" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I3" s="17"/>
       <c r="J3" s="17"/>
@@ -1288,10 +1290,10 @@
     </row>
     <row r="4" spans="1:21" ht="23">
       <c r="A4" s="20" t="s">
+        <v>47</v>
+      </c>
+      <c r="B4" s="21" t="s">
         <v>48</v>
-      </c>
-      <c r="B4" s="21" t="s">
-        <v>49</v>
       </c>
       <c r="C4" s="22"/>
       <c r="D4" s="22"/>
@@ -1317,16 +1319,16 @@
       <c r="A5" s="20"/>
       <c r="B5" s="21"/>
       <c r="C5" s="22" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D5" s="22" t="s">
         <v>36</v>
       </c>
       <c r="E5" s="23" t="s">
+        <v>50</v>
+      </c>
+      <c r="F5" s="24" t="s">
         <v>51</v>
-      </c>
-      <c r="F5" s="24" t="s">
-        <v>52</v>
       </c>
       <c r="G5" s="25"/>
       <c r="H5" s="26"/>
@@ -1348,10 +1350,10 @@
     </row>
     <row r="6" spans="1:21" ht="23">
       <c r="A6" s="20" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B6" s="21" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C6" s="22"/>
       <c r="D6" s="22"/>
@@ -1375,7 +1377,7 @@
     </row>
     <row r="7" spans="1:21" ht="23">
       <c r="A7" s="20" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B7" s="21"/>
       <c r="C7" s="22"/>
@@ -1400,7 +1402,7 @@
     </row>
     <row r="8" spans="1:21" ht="23">
       <c r="A8" s="20" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B8" s="21"/>
       <c r="C8" s="22"/>
@@ -1425,7 +1427,7 @@
     </row>
     <row r="9" spans="1:21" ht="23">
       <c r="A9" s="20" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B9" s="21"/>
       <c r="C9" s="22"/>
@@ -1452,12 +1454,12 @@
       <c r="A10" s="20"/>
       <c r="B10" s="21"/>
       <c r="C10" s="22" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D10" s="22"/>
       <c r="E10" s="23"/>
       <c r="F10" s="24" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G10" s="25"/>
       <c r="H10" s="26"/>
@@ -1479,14 +1481,14 @@
       <c r="A11" s="20"/>
       <c r="B11" s="21"/>
       <c r="C11" s="22" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D11" s="22" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E11" s="23"/>
       <c r="F11" s="24" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G11" s="25"/>
       <c r="H11" s="26"/>
@@ -1506,7 +1508,7 @@
     </row>
     <row r="12" spans="1:21" ht="23">
       <c r="A12" s="20" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B12" s="21"/>
       <c r="C12" s="22"/>
@@ -1531,7 +1533,7 @@
     </row>
     <row r="13" spans="1:21" ht="23">
       <c r="A13" s="20" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B13" s="21"/>
       <c r="C13" s="22"/>
@@ -1558,12 +1560,12 @@
       <c r="A14" s="20"/>
       <c r="B14" s="21"/>
       <c r="C14" s="22" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D14" s="22"/>
       <c r="E14" s="23"/>
       <c r="F14" s="24" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G14" s="25"/>
       <c r="H14" s="26"/>
@@ -1585,10 +1587,10 @@
       <c r="A15" s="20"/>
       <c r="B15" s="21"/>
       <c r="C15" s="22" t="s">
+        <v>61</v>
+      </c>
+      <c r="D15" s="22" t="s">
         <v>62</v>
-      </c>
-      <c r="D15" s="22" t="s">
-        <v>63</v>
       </c>
       <c r="E15" s="23" t="s">
         <v>8</v>
@@ -1635,7 +1637,7 @@
     </row>
     <row r="17" spans="1:21" ht="23">
       <c r="A17" s="20" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B17" s="21"/>
       <c r="C17" s="22"/>
@@ -1660,10 +1662,10 @@
     </row>
     <row r="18" spans="1:21" ht="23">
       <c r="A18" s="20" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B18" s="21" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C18" s="22"/>
       <c r="D18" s="22"/>
@@ -1689,14 +1691,14 @@
       <c r="A19" s="20"/>
       <c r="B19" s="21"/>
       <c r="C19" s="22" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D19" s="22"/>
       <c r="E19" s="23" t="s">
+        <v>65</v>
+      </c>
+      <c r="F19" s="24" t="s">
         <v>66</v>
-      </c>
-      <c r="F19" s="24" t="s">
-        <v>67</v>
       </c>
       <c r="G19" s="25"/>
       <c r="H19" s="26"/>
@@ -1718,7 +1720,7 @@
       <c r="A20" s="20"/>
       <c r="B20" s="21"/>
       <c r="C20" s="22" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D20" s="22"/>
       <c r="E20" s="23" t="s">
@@ -1728,7 +1730,7 @@
       <c r="G20" s="25"/>
       <c r="H20" s="26"/>
       <c r="I20" s="17" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="J20" s="17"/>
       <c r="K20" s="17"/>
@@ -1754,7 +1756,7 @@
         <v>7</v>
       </c>
       <c r="F21" s="24" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="G21" s="25"/>
       <c r="H21" s="26"/>
@@ -1783,7 +1785,7 @@
         <v>6</v>
       </c>
       <c r="F22" s="24" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="G22" s="25"/>
       <c r="H22" s="26"/>
@@ -1805,14 +1807,14 @@
       <c r="A23" s="20"/>
       <c r="B23" s="21"/>
       <c r="C23" s="22" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D23" s="22"/>
       <c r="E23" s="23" t="s">
+        <v>71</v>
+      </c>
+      <c r="F23" s="24" t="s">
         <v>72</v>
-      </c>
-      <c r="F23" s="24" t="s">
-        <v>73</v>
       </c>
       <c r="G23" s="25"/>
       <c r="H23" s="26"/>
@@ -1832,7 +1834,7 @@
     </row>
     <row r="24" spans="1:21" ht="23">
       <c r="A24" s="20" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B24" s="21"/>
       <c r="C24" s="22"/>
@@ -1859,16 +1861,16 @@
       <c r="A25" s="20"/>
       <c r="B25" s="21"/>
       <c r="C25" s="22" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D25" s="22" t="s">
         <v>36</v>
       </c>
       <c r="E25" s="23" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F25" s="24" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="G25" s="25"/>
       <c r="H25" s="26"/>
@@ -1888,10 +1890,10 @@
     </row>
     <row r="26" spans="1:21" ht="23">
       <c r="A26" s="20" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B26" s="21" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C26" s="22"/>
       <c r="D26" s="22"/>
@@ -1915,7 +1917,7 @@
     </row>
     <row r="27" spans="1:21" ht="23">
       <c r="A27" s="20" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B27" s="21"/>
       <c r="C27" s="22"/>
@@ -1940,7 +1942,7 @@
     </row>
     <row r="28" spans="1:21" ht="23">
       <c r="A28" s="20" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B28" s="21"/>
       <c r="C28" s="22"/>
@@ -1967,14 +1969,14 @@
       <c r="A29" s="20"/>
       <c r="B29" s="21"/>
       <c r="C29" s="22" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D29" s="22"/>
       <c r="E29" s="23" t="s">
+        <v>74</v>
+      </c>
+      <c r="F29" s="24" t="s">
         <v>75</v>
-      </c>
-      <c r="F29" s="24" t="s">
-        <v>76</v>
       </c>
       <c r="G29" s="25"/>
       <c r="H29" s="26"/>
@@ -1996,7 +1998,7 @@
     </row>
     <row r="30" spans="1:21" ht="23">
       <c r="A30" s="20" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B30" s="21"/>
       <c r="C30" s="22"/>
@@ -2021,7 +2023,7 @@
     </row>
     <row r="31" spans="1:21" ht="23">
       <c r="A31" s="20" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B31" s="21"/>
       <c r="C31" s="22"/>
@@ -2056,68 +2058,67 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+      <selection activeCell="D28" sqref="D28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:8">
       <c r="A1" t="s">
+        <v>84</v>
+      </c>
+      <c r="B1" t="s">
         <v>85</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>86</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>87</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>88</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>89</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>90</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>91</v>
       </c>
-      <c r="H1" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9">
-      <c r="A2" s="17" t="s">
-        <v>63</v>
-      </c>
-      <c r="B2" s="17" t="s">
-        <v>58</v>
-      </c>
-      <c r="C2" s="17" t="s">
-        <v>84</v>
-      </c>
-      <c r="D2" s="17" t="s">
-        <v>84</v>
-      </c>
-      <c r="E2" s="17" t="s">
+    </row>
+    <row r="2" spans="1:8" ht="18" customHeight="1">
+      <c r="A2" t="s">
+        <v>62</v>
+      </c>
+      <c r="B2" t="s">
+        <v>57</v>
+      </c>
+      <c r="C2" t="s">
+        <v>98</v>
+      </c>
+      <c r="D2" t="s">
+        <v>83</v>
+      </c>
+      <c r="E2" t="s">
         <v>97</v>
       </c>
-      <c r="F2" s="17" t="s">
+      <c r="F2" t="s">
         <v>95</v>
       </c>
-      <c r="G2" s="17" t="s">
+      <c r="G2" t="s">
         <v>8</v>
       </c>
-      <c r="H2" s="36" t="s">
+      <c r="H2" s="11" t="s">
         <v>96</v>
       </c>
-      <c r="I2" s="17"/>
-    </row>
-    <row r="4" spans="1:9">
+    </row>
+    <row r="4" spans="1:8">
       <c r="H4" s="11"/>
     </row>
   </sheetData>
@@ -2142,7 +2143,7 @@
   <sheetData>
     <row r="1" spans="1:2" ht="30">
       <c r="A1" s="35" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B1" s="35" t="s">
         <v>0</v>
@@ -2150,7 +2151,7 @@
     </row>
     <row r="2" spans="1:2" ht="45">
       <c r="A2" s="35" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B2" s="35" t="s">
         <v>2</v>

--- a/app/config/tables/deployment/forms/deploy_to_specific/deploy_to_specific.xlsx
+++ b/app/config/tables/deployment/forms/deploy_to_specific/deploy_to_specific.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="27022"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16220" tabRatio="500" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16220" tabRatio="500" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="model" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="100">
   <si>
     <t>type</t>
   </si>
@@ -143,191 +143,194 @@
     <t>No</t>
   </si>
   <si>
+    <t>note</t>
+  </si>
+  <si>
+    <t>pre-deployment</t>
+  </si>
+  <si>
+    <t>We will now distribute the appropriate item pack</t>
+  </si>
+  <si>
+    <t>barcode</t>
+  </si>
+  <si>
+    <t>Scan an item pack barcode within the range of {{data.min_range}} to {{data.max_range}}</t>
+  </si>
+  <si>
+    <t>item_scan</t>
+  </si>
+  <si>
+    <t>if</t>
+  </si>
+  <si>
+    <t>select_one</t>
+  </si>
+  <si>
+    <t>try_again</t>
+  </si>
+  <si>
+    <t>Unauthorized Item Pack! Do not distribute this  item pack. Would you like to scan a different item pack?</t>
+  </si>
+  <si>
+    <t>selected(data('try_again'),'yes')</t>
+  </si>
+  <si>
+    <t>goto item_scan</t>
+  </si>
+  <si>
+    <t>end if</t>
+  </si>
+  <si>
+    <t>else</t>
+  </si>
+  <si>
+    <t>This item pack is authorized. Please distribute this item pack.</t>
+  </si>
+  <si>
+    <t>linked_table</t>
+  </si>
+  <si>
+    <t>Please click the pencil icon to record distribution</t>
+  </si>
+  <si>
+    <t>begin screen</t>
+  </si>
+  <si>
+    <t>Please continue to the next screen if you have clicked the pencil icon to record distribution</t>
+  </si>
+  <si>
+    <t>async_assign_single_string</t>
+  </si>
+  <si>
+    <t>is_distributed_value_query</t>
+  </si>
+  <si>
+    <t>end screen</t>
+  </si>
+  <si>
+    <t>data('is_distributed') == 'true'</t>
+  </si>
+  <si>
+    <t>pre-summary</t>
+  </si>
+  <si>
+    <t>Since the authorized item pack was successfully distributed, we will complete now complete a brief report.</t>
+  </si>
+  <si>
+    <t>assign</t>
+  </si>
+  <si>
+    <t>now()</t>
+  </si>
+  <si>
+    <t>What is the name of the distributor?</t>
+  </si>
+  <si>
+    <t>What is the name of the distribution site?</t>
+  </si>
+  <si>
+    <t>thanks</t>
+  </si>
+  <si>
+    <t>Thank you for completing the post-distribution survey. Continue to the next screen to finalize.</t>
+  </si>
+  <si>
+    <t>Would you like to scan a different item pack instead?</t>
+  </si>
+  <si>
+    <t>no_report_option</t>
+  </si>
+  <si>
+    <t>Since no item pack was successfully distributed, we will not fill out a post-distribution report.</t>
+  </si>
+  <si>
+    <t>clause</t>
+  </si>
+  <si>
+    <t>condition</t>
+  </si>
+  <si>
+    <t>values_list</t>
+  </si>
+  <si>
+    <t>display.hint</t>
+  </si>
+  <si>
+    <t>branch_label</t>
+  </si>
+  <si>
+    <t>calculation</t>
+  </si>
+  <si>
+    <t>model.isSessionVariable</t>
+  </si>
+  <si>
+    <t>distribution</t>
+  </si>
+  <si>
+    <t>query_name</t>
+  </si>
+  <si>
+    <t>query_type</t>
+  </si>
+  <si>
+    <t>linked_form_id</t>
+  </si>
+  <si>
+    <t>linked_table_id</t>
+  </si>
+  <si>
+    <t>selection</t>
+  </si>
+  <si>
+    <t>selectionArgs</t>
+  </si>
+  <si>
+    <t>fieldName</t>
+  </si>
+  <si>
+    <t>auxillaryHash</t>
+  </si>
+  <si>
+    <t>prompt_type_name</t>
+  </si>
+  <si>
+    <t>Deployment To Specific</t>
+  </si>
+  <si>
+    <t>number</t>
+  </si>
+  <si>
+    <t>[data('beneficiary_code'), data('distribution_id')]</t>
+  </si>
+  <si>
+    <t>'beneficiary_code='+opendatakit.encodeURIDataElement('beneficiary_code')+ '&amp;_id='+opendatakit.encodeURIDataElement('distribution_id')</t>
+  </si>
+  <si>
+    <t>beneficiary_code = ? and distribution_id = ?</t>
+  </si>
+  <si>
+    <t>set_is_distributed</t>
+  </si>
+  <si>
+    <t>Please confirm or update item pack barcode.</t>
+  </si>
+  <si>
+    <t>max_range</t>
+  </si>
+  <si>
     <t>min_range</t>
   </si>
   <si>
-    <t>max_range</t>
-  </si>
-  <si>
-    <t>note</t>
-  </si>
-  <si>
-    <t>pre-deployment</t>
-  </si>
-  <si>
-    <t>We will now distribute the appropriate item pack</t>
-  </si>
-  <si>
-    <t>barcode</t>
-  </si>
-  <si>
-    <t>Scan an item pack barcode within the range of {{data.min_range}} to {{data.max_range}}</t>
-  </si>
-  <si>
-    <t>item_scan</t>
-  </si>
-  <si>
-    <t>if</t>
-  </si>
-  <si>
-    <t>(data('scanned_item_pack_barcode') &gt; data('maxRange')) || (data('scanned_item_pack_barcode') &lt; data('minRange'))</t>
-  </si>
-  <si>
-    <t>select_one</t>
-  </si>
-  <si>
-    <t>try_again</t>
-  </si>
-  <si>
-    <t>Unauthorized Item Pack! Do not distribute this  item pack. Would you like to scan a different item pack?</t>
-  </si>
-  <si>
-    <t>selected(data('try_again'),'yes')</t>
-  </si>
-  <si>
-    <t>goto item_scan</t>
-  </si>
-  <si>
-    <t>end if</t>
-  </si>
-  <si>
-    <t>else</t>
-  </si>
-  <si>
-    <t>This item pack is authorized. Please distribute this item pack.</t>
-  </si>
-  <si>
-    <t>linked_table</t>
-  </si>
-  <si>
-    <t>Please click the pencil icon to record distribution</t>
-  </si>
-  <si>
-    <t>begin screen</t>
-  </si>
-  <si>
-    <t>Please continue to the next screen if you have clicked the pencil icon to record distribution</t>
-  </si>
-  <si>
-    <t>async_assign_single_string</t>
-  </si>
-  <si>
-    <t>is_distributed_value_query</t>
-  </si>
-  <si>
-    <t>end screen</t>
-  </si>
-  <si>
-    <t>data('is_distributed') == 'true'</t>
-  </si>
-  <si>
-    <t>pre-summary</t>
-  </si>
-  <si>
-    <t>Since the authorized item pack was successfully distributed, we will complete now complete a brief report.</t>
-  </si>
-  <si>
-    <t>assign</t>
-  </si>
-  <si>
-    <t>now()</t>
-  </si>
-  <si>
-    <t>What is the name of the distributor?</t>
-  </si>
-  <si>
-    <t>What is the name of the distribution site?</t>
-  </si>
-  <si>
-    <t>thanks</t>
-  </si>
-  <si>
-    <t>Thank you for completing the post-distribution survey. Continue to the next screen to finalize.</t>
-  </si>
-  <si>
-    <t>Would you like to scan a different item pack instead?</t>
-  </si>
-  <si>
-    <t>no_report_option</t>
-  </si>
-  <si>
-    <t>Since no item pack was successfully distributed, we will not fill out a post-distribution report.</t>
-  </si>
-  <si>
-    <t>clause</t>
-  </si>
-  <si>
-    <t>condition</t>
-  </si>
-  <si>
-    <t>values_list</t>
-  </si>
-  <si>
-    <t>display.hint</t>
-  </si>
-  <si>
-    <t>branch_label</t>
-  </si>
-  <si>
-    <t>calculation</t>
-  </si>
-  <si>
-    <t>model.isSessionVariable</t>
-  </si>
-  <si>
-    <t>distribution</t>
-  </si>
-  <si>
-    <t>query_name</t>
-  </si>
-  <si>
-    <t>query_type</t>
-  </si>
-  <si>
-    <t>linked_form_id</t>
-  </si>
-  <si>
-    <t>linked_table_id</t>
-  </si>
-  <si>
-    <t>selection</t>
-  </si>
-  <si>
-    <t>selectionArgs</t>
-  </si>
-  <si>
-    <t>fieldName</t>
-  </si>
-  <si>
-    <t>auxillaryHash</t>
-  </si>
-  <si>
-    <t>prompt_type_name</t>
-  </si>
-  <si>
-    <t>Deployment To Specific</t>
-  </si>
-  <si>
-    <t>number</t>
-  </si>
-  <si>
-    <t>[data('beneficiary_code'), data('distribution_id')]</t>
-  </si>
-  <si>
-    <t>'beneficiary_code='+opendatakit.encodeURIDataElement('beneficiary_code')+ '&amp;_id='+opendatakit.encodeURIDataElement('distribution_id')</t>
-  </si>
-  <si>
-    <t>beneficiary_code = ? and distribution_id = ?</t>
-  </si>
-  <si>
-    <t>set_is_distributed</t>
+    <t>(data('item_pack_barcode') &gt; data('max_range')) || (data('item_pack_barcode') &lt; data('min_range'))</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -364,6 +367,22 @@
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="11"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -504,8 +523,10 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -547,7 +568,9 @@
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="3">
+    <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -880,7 +903,7 @@
   <dimension ref="A1:B15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A14" sqref="A14"/>
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -939,7 +962,7 @@
     </row>
     <row r="7" spans="1:2" ht="23">
       <c r="A7" s="3" t="s">
-        <v>2</v>
+        <v>91</v>
       </c>
       <c r="B7" s="4" t="s">
         <v>9</v>
@@ -995,22 +1018,23 @@
     </row>
     <row r="14" spans="1:2" ht="23">
       <c r="A14" s="3" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>39</v>
+        <v>98</v>
       </c>
     </row>
     <row r="15" spans="1:2" ht="23">
       <c r="A15" s="3" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>40</v>
+        <v>97</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
@@ -1078,7 +1102,7 @@
       </c>
       <c r="B5" s="9"/>
       <c r="C5" s="10" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="23">
@@ -1177,10 +1201,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:U31"/>
+  <dimension ref="A1:U32"/>
   <sheetViews>
-    <sheetView topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="D26" sqref="D26"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -1198,16 +1222,16 @@
   <sheetData>
     <row r="1" spans="1:21" ht="23">
       <c r="A1" s="6" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="C1" s="30" t="s">
         <v>0</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="E1" s="31" t="s">
         <v>1</v>
@@ -1216,30 +1240,30 @@
         <v>30</v>
       </c>
       <c r="G1" s="33" t="s">
+        <v>76</v>
+      </c>
+      <c r="H1" s="34" t="s">
+        <v>77</v>
+      </c>
+      <c r="I1" t="s">
+        <v>78</v>
+      </c>
+      <c r="J1" t="s">
         <v>79</v>
-      </c>
-      <c r="H1" s="34" t="s">
-        <v>80</v>
-      </c>
-      <c r="I1" t="s">
-        <v>81</v>
-      </c>
-      <c r="J1" t="s">
-        <v>82</v>
       </c>
     </row>
     <row r="2" spans="1:21" ht="23">
       <c r="A2" s="12"/>
       <c r="B2" s="13"/>
       <c r="C2" s="14" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D2" s="14"/>
       <c r="E2" s="15" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="F2" s="16" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="G2" s="18"/>
       <c r="H2" s="19"/>
@@ -1261,18 +1285,18 @@
       <c r="A3" s="20"/>
       <c r="B3" s="21"/>
       <c r="C3" s="22" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D3" s="22"/>
       <c r="E3" s="23" t="s">
         <v>9</v>
       </c>
       <c r="F3" s="24" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="G3" s="25"/>
       <c r="H3" s="26" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="I3" s="17"/>
       <c r="J3" s="17"/>
@@ -1289,19 +1313,21 @@
       <c r="U3" s="17"/>
     </row>
     <row r="4" spans="1:21" ht="23">
-      <c r="A4" s="20" t="s">
-        <v>47</v>
-      </c>
-      <c r="B4" s="21" t="s">
-        <v>48</v>
-      </c>
-      <c r="C4" s="22"/>
+      <c r="A4" s="20"/>
+      <c r="B4" s="21"/>
+      <c r="C4" s="22" t="s">
+        <v>2</v>
+      </c>
       <c r="D4" s="22"/>
-      <c r="E4" s="23"/>
-      <c r="F4" s="24"/>
+      <c r="E4" s="23" t="s">
+        <v>9</v>
+      </c>
+      <c r="F4" s="24" t="s">
+        <v>96</v>
+      </c>
       <c r="G4" s="25"/>
       <c r="H4" s="26"/>
-      <c r="I4" s="18"/>
+      <c r="I4" s="17"/>
       <c r="J4" s="17"/>
       <c r="K4" s="17"/>
       <c r="L4" s="17"/>
@@ -1316,26 +1342,20 @@
       <c r="U4" s="17"/>
     </row>
     <row r="5" spans="1:21" ht="23">
-      <c r="A5" s="20"/>
-      <c r="B5" s="21"/>
-      <c r="C5" s="22" t="s">
-        <v>49</v>
-      </c>
-      <c r="D5" s="22" t="s">
-        <v>36</v>
-      </c>
-      <c r="E5" s="23" t="s">
-        <v>50</v>
-      </c>
-      <c r="F5" s="24" t="s">
-        <v>51</v>
-      </c>
+      <c r="A5" s="20" t="s">
+        <v>45</v>
+      </c>
+      <c r="B5" s="21" t="s">
+        <v>99</v>
+      </c>
+      <c r="C5" s="22"/>
+      <c r="D5" s="22"/>
+      <c r="E5" s="23"/>
+      <c r="F5" s="24"/>
       <c r="G5" s="25"/>
       <c r="H5" s="26"/>
-      <c r="I5" s="25"/>
-      <c r="J5" s="17" t="b">
-        <v>1</v>
-      </c>
+      <c r="I5" s="18"/>
+      <c r="J5" s="17"/>
       <c r="K5" s="17"/>
       <c r="L5" s="17"/>
       <c r="M5" s="17"/>
@@ -1349,20 +1369,26 @@
       <c r="U5" s="17"/>
     </row>
     <row r="6" spans="1:21" ht="23">
-      <c r="A6" s="20" t="s">
+      <c r="A6" s="20"/>
+      <c r="B6" s="21"/>
+      <c r="C6" s="22" t="s">
+        <v>46</v>
+      </c>
+      <c r="D6" s="22" t="s">
+        <v>36</v>
+      </c>
+      <c r="E6" s="23" t="s">
         <v>47</v>
       </c>
-      <c r="B6" s="21" t="s">
-        <v>52</v>
-      </c>
-      <c r="C6" s="22"/>
-      <c r="D6" s="22"/>
-      <c r="E6" s="23"/>
-      <c r="F6" s="24"/>
+      <c r="F6" s="24" t="s">
+        <v>48</v>
+      </c>
       <c r="G6" s="25"/>
       <c r="H6" s="26"/>
       <c r="I6" s="25"/>
-      <c r="J6" s="17"/>
+      <c r="J6" s="17" t="b">
+        <v>1</v>
+      </c>
       <c r="K6" s="17"/>
       <c r="L6" s="17"/>
       <c r="M6" s="17"/>
@@ -1377,9 +1403,11 @@
     </row>
     <row r="7" spans="1:21" ht="23">
       <c r="A7" s="20" t="s">
-        <v>53</v>
-      </c>
-      <c r="B7" s="21"/>
+        <v>45</v>
+      </c>
+      <c r="B7" s="21" t="s">
+        <v>49</v>
+      </c>
       <c r="C7" s="22"/>
       <c r="D7" s="22"/>
       <c r="E7" s="23"/>
@@ -1402,7 +1430,7 @@
     </row>
     <row r="8" spans="1:21" ht="23">
       <c r="A8" s="20" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="B8" s="21"/>
       <c r="C8" s="22"/>
@@ -1427,7 +1455,7 @@
     </row>
     <row r="9" spans="1:21" ht="23">
       <c r="A9" s="20" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="B9" s="21"/>
       <c r="C9" s="22"/>
@@ -1451,16 +1479,14 @@
       <c r="U9" s="17"/>
     </row>
     <row r="10" spans="1:21" ht="23">
-      <c r="A10" s="20"/>
+      <c r="A10" s="20" t="s">
+        <v>52</v>
+      </c>
       <c r="B10" s="21"/>
-      <c r="C10" s="22" t="s">
-        <v>41</v>
-      </c>
+      <c r="C10" s="22"/>
       <c r="D10" s="22"/>
       <c r="E10" s="23"/>
-      <c r="F10" s="24" t="s">
-        <v>56</v>
-      </c>
+      <c r="F10" s="24"/>
       <c r="G10" s="25"/>
       <c r="H10" s="26"/>
       <c r="I10" s="25"/>
@@ -1481,18 +1507,16 @@
       <c r="A11" s="20"/>
       <c r="B11" s="21"/>
       <c r="C11" s="22" t="s">
-        <v>57</v>
-      </c>
-      <c r="D11" s="22" t="s">
-        <v>62</v>
-      </c>
+        <v>39</v>
+      </c>
+      <c r="D11" s="22"/>
       <c r="E11" s="23"/>
       <c r="F11" s="24" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="G11" s="25"/>
       <c r="H11" s="26"/>
-      <c r="I11" s="17"/>
+      <c r="I11" s="25"/>
       <c r="J11" s="17"/>
       <c r="K11" s="17"/>
       <c r="L11" s="17"/>
@@ -1507,17 +1531,21 @@
       <c r="U11" s="17"/>
     </row>
     <row r="12" spans="1:21" ht="23">
-      <c r="A12" s="20" t="s">
+      <c r="A12" s="20"/>
+      <c r="B12" s="21"/>
+      <c r="C12" s="22" t="s">
         <v>54</v>
       </c>
-      <c r="B12" s="21"/>
-      <c r="C12" s="22"/>
-      <c r="D12" s="22"/>
+      <c r="D12" s="22" t="s">
+        <v>59</v>
+      </c>
       <c r="E12" s="23"/>
-      <c r="F12" s="24"/>
+      <c r="F12" s="24" t="s">
+        <v>55</v>
+      </c>
       <c r="G12" s="25"/>
       <c r="H12" s="26"/>
-      <c r="I12" s="18"/>
+      <c r="I12" s="17"/>
       <c r="J12" s="17"/>
       <c r="K12" s="17"/>
       <c r="L12" s="17"/>
@@ -1533,7 +1561,7 @@
     </row>
     <row r="13" spans="1:21" ht="23">
       <c r="A13" s="20" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="B13" s="21"/>
       <c r="C13" s="22"/>
@@ -1542,7 +1570,7 @@
       <c r="F13" s="24"/>
       <c r="G13" s="25"/>
       <c r="H13" s="26"/>
-      <c r="I13" s="27"/>
+      <c r="I13" s="18"/>
       <c r="J13" s="17"/>
       <c r="K13" s="17"/>
       <c r="L13" s="17"/>
@@ -1557,16 +1585,14 @@
       <c r="U13" s="17"/>
     </row>
     <row r="14" spans="1:21" ht="23">
-      <c r="A14" s="20"/>
+      <c r="A14" s="20" t="s">
+        <v>56</v>
+      </c>
       <c r="B14" s="21"/>
-      <c r="C14" s="22" t="s">
-        <v>41</v>
-      </c>
+      <c r="C14" s="22"/>
       <c r="D14" s="22"/>
       <c r="E14" s="23"/>
-      <c r="F14" s="24" t="s">
-        <v>60</v>
-      </c>
+      <c r="F14" s="24"/>
       <c r="G14" s="25"/>
       <c r="H14" s="26"/>
       <c r="I14" s="27"/>
@@ -1587,18 +1613,16 @@
       <c r="A15" s="20"/>
       <c r="B15" s="21"/>
       <c r="C15" s="22" t="s">
-        <v>61</v>
-      </c>
-      <c r="D15" s="22" t="s">
-        <v>62</v>
-      </c>
-      <c r="E15" s="23" t="s">
-        <v>8</v>
-      </c>
-      <c r="F15" s="24"/>
+        <v>39</v>
+      </c>
+      <c r="D15" s="22"/>
+      <c r="E15" s="23"/>
+      <c r="F15" s="24" t="s">
+        <v>57</v>
+      </c>
       <c r="G15" s="25"/>
       <c r="H15" s="26"/>
-      <c r="I15" s="17"/>
+      <c r="I15" s="27"/>
       <c r="J15" s="17"/>
       <c r="K15" s="17"/>
       <c r="L15" s="17"/>
@@ -1615,13 +1639,19 @@
     <row r="16" spans="1:21" ht="23">
       <c r="A16" s="20"/>
       <c r="B16" s="21"/>
-      <c r="C16" s="22"/>
-      <c r="D16" s="22"/>
-      <c r="E16" s="23"/>
+      <c r="C16" s="22" t="s">
+        <v>58</v>
+      </c>
+      <c r="D16" s="22" t="s">
+        <v>59</v>
+      </c>
+      <c r="E16" s="23" t="s">
+        <v>8</v>
+      </c>
       <c r="F16" s="24"/>
       <c r="G16" s="25"/>
       <c r="H16" s="26"/>
-      <c r="I16" s="27"/>
+      <c r="I16" s="17"/>
       <c r="J16" s="17"/>
       <c r="K16" s="17"/>
       <c r="L16" s="17"/>
@@ -1636,9 +1666,7 @@
       <c r="U16" s="17"/>
     </row>
     <row r="17" spans="1:21" ht="23">
-      <c r="A17" s="20" t="s">
-        <v>63</v>
-      </c>
+      <c r="A17" s="20"/>
       <c r="B17" s="21"/>
       <c r="C17" s="22"/>
       <c r="D17" s="22"/>
@@ -1662,18 +1690,16 @@
     </row>
     <row r="18" spans="1:21" ht="23">
       <c r="A18" s="20" t="s">
-        <v>47</v>
-      </c>
-      <c r="B18" s="21" t="s">
-        <v>64</v>
-      </c>
+        <v>60</v>
+      </c>
+      <c r="B18" s="21"/>
       <c r="C18" s="22"/>
       <c r="D18" s="22"/>
       <c r="E18" s="23"/>
       <c r="F18" s="24"/>
       <c r="G18" s="25"/>
       <c r="H18" s="26"/>
-      <c r="I18" s="17"/>
+      <c r="I18" s="27"/>
       <c r="J18" s="17"/>
       <c r="K18" s="17"/>
       <c r="L18" s="17"/>
@@ -1688,18 +1714,16 @@
       <c r="U18" s="17"/>
     </row>
     <row r="19" spans="1:21" ht="23">
-      <c r="A19" s="20"/>
-      <c r="B19" s="21"/>
-      <c r="C19" s="22" t="s">
-        <v>41</v>
-      </c>
+      <c r="A19" s="20" t="s">
+        <v>45</v>
+      </c>
+      <c r="B19" s="21" t="s">
+        <v>61</v>
+      </c>
+      <c r="C19" s="22"/>
       <c r="D19" s="22"/>
-      <c r="E19" s="23" t="s">
-        <v>65</v>
-      </c>
-      <c r="F19" s="24" t="s">
-        <v>66</v>
-      </c>
+      <c r="E19" s="23"/>
+      <c r="F19" s="24"/>
       <c r="G19" s="25"/>
       <c r="H19" s="26"/>
       <c r="I19" s="17"/>
@@ -1720,18 +1744,18 @@
       <c r="A20" s="20"/>
       <c r="B20" s="21"/>
       <c r="C20" s="22" t="s">
-        <v>67</v>
+        <v>39</v>
       </c>
       <c r="D20" s="22"/>
       <c r="E20" s="23" t="s">
-        <v>5</v>
-      </c>
-      <c r="F20" s="24"/>
+        <v>62</v>
+      </c>
+      <c r="F20" s="24" t="s">
+        <v>63</v>
+      </c>
       <c r="G20" s="25"/>
       <c r="H20" s="26"/>
-      <c r="I20" s="17" t="s">
-        <v>68</v>
-      </c>
+      <c r="I20" s="17"/>
       <c r="J20" s="17"/>
       <c r="K20" s="17"/>
       <c r="L20" s="17"/>
@@ -1749,18 +1773,18 @@
       <c r="A21" s="20"/>
       <c r="B21" s="21"/>
       <c r="C21" s="22" t="s">
-        <v>2</v>
+        <v>64</v>
       </c>
       <c r="D21" s="22"/>
       <c r="E21" s="23" t="s">
-        <v>7</v>
-      </c>
-      <c r="F21" s="24" t="s">
-        <v>69</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="F21" s="24"/>
       <c r="G21" s="25"/>
       <c r="H21" s="26"/>
-      <c r="I21" s="17"/>
+      <c r="I21" s="17" t="s">
+        <v>65</v>
+      </c>
       <c r="J21" s="17"/>
       <c r="K21" s="17"/>
       <c r="L21" s="17"/>
@@ -1782,10 +1806,10 @@
       </c>
       <c r="D22" s="22"/>
       <c r="E22" s="23" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F22" s="24" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="G22" s="25"/>
       <c r="H22" s="26"/>
@@ -1807,14 +1831,14 @@
       <c r="A23" s="20"/>
       <c r="B23" s="21"/>
       <c r="C23" s="22" t="s">
-        <v>41</v>
+        <v>2</v>
       </c>
       <c r="D23" s="22"/>
       <c r="E23" s="23" t="s">
-        <v>71</v>
+        <v>6</v>
       </c>
       <c r="F23" s="24" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="G23" s="25"/>
       <c r="H23" s="26"/>
@@ -1833,14 +1857,18 @@
       <c r="U23" s="17"/>
     </row>
     <row r="24" spans="1:21" ht="23">
-      <c r="A24" s="20" t="s">
-        <v>55</v>
-      </c>
+      <c r="A24" s="20"/>
       <c r="B24" s="21"/>
-      <c r="C24" s="22"/>
+      <c r="C24" s="22" t="s">
+        <v>39</v>
+      </c>
       <c r="D24" s="22"/>
-      <c r="E24" s="23"/>
-      <c r="F24" s="24"/>
+      <c r="E24" s="23" t="s">
+        <v>68</v>
+      </c>
+      <c r="F24" s="24" t="s">
+        <v>69</v>
+      </c>
       <c r="G24" s="25"/>
       <c r="H24" s="26"/>
       <c r="I24" s="17"/>
@@ -1858,20 +1886,14 @@
       <c r="U24" s="17"/>
     </row>
     <row r="25" spans="1:21" ht="23">
-      <c r="A25" s="20"/>
+      <c r="A25" s="20" t="s">
+        <v>52</v>
+      </c>
       <c r="B25" s="21"/>
-      <c r="C25" s="22" t="s">
-        <v>49</v>
-      </c>
-      <c r="D25" s="22" t="s">
-        <v>36</v>
-      </c>
-      <c r="E25" s="23" t="s">
-        <v>50</v>
-      </c>
-      <c r="F25" s="24" t="s">
-        <v>73</v>
-      </c>
+      <c r="C25" s="22"/>
+      <c r="D25" s="22"/>
+      <c r="E25" s="23"/>
+      <c r="F25" s="24"/>
       <c r="G25" s="25"/>
       <c r="H25" s="26"/>
       <c r="I25" s="17"/>
@@ -1889,16 +1911,20 @@
       <c r="U25" s="17"/>
     </row>
     <row r="26" spans="1:21" ht="23">
-      <c r="A26" s="20" t="s">
+      <c r="A26" s="20"/>
+      <c r="B26" s="21"/>
+      <c r="C26" s="22" t="s">
+        <v>46</v>
+      </c>
+      <c r="D26" s="22" t="s">
+        <v>36</v>
+      </c>
+      <c r="E26" s="23" t="s">
         <v>47</v>
       </c>
-      <c r="B26" s="21" t="s">
-        <v>52</v>
-      </c>
-      <c r="C26" s="22"/>
-      <c r="D26" s="22"/>
-      <c r="E26" s="23"/>
-      <c r="F26" s="24"/>
+      <c r="F26" s="24" t="s">
+        <v>70</v>
+      </c>
       <c r="G26" s="25"/>
       <c r="H26" s="26"/>
       <c r="I26" s="17"/>
@@ -1917,9 +1943,11 @@
     </row>
     <row r="27" spans="1:21" ht="23">
       <c r="A27" s="20" t="s">
-        <v>53</v>
-      </c>
-      <c r="B27" s="21"/>
+        <v>45</v>
+      </c>
+      <c r="B27" s="21" t="s">
+        <v>49</v>
+      </c>
       <c r="C27" s="22"/>
       <c r="D27" s="22"/>
       <c r="E27" s="23"/>
@@ -1942,7 +1970,7 @@
     </row>
     <row r="28" spans="1:21" ht="23">
       <c r="A28" s="20" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="B28" s="21"/>
       <c r="C28" s="22"/>
@@ -1966,24 +1994,18 @@
       <c r="U28" s="17"/>
     </row>
     <row r="29" spans="1:21" ht="23">
-      <c r="A29" s="20"/>
+      <c r="A29" s="20" t="s">
+        <v>52</v>
+      </c>
       <c r="B29" s="21"/>
-      <c r="C29" s="22" t="s">
-        <v>41</v>
-      </c>
+      <c r="C29" s="22"/>
       <c r="D29" s="22"/>
-      <c r="E29" s="23" t="s">
-        <v>74</v>
-      </c>
-      <c r="F29" s="24" t="s">
-        <v>75</v>
-      </c>
+      <c r="E29" s="23"/>
+      <c r="F29" s="24"/>
       <c r="G29" s="25"/>
       <c r="H29" s="26"/>
       <c r="I29" s="17"/>
-      <c r="J29" s="17" t="b">
-        <v>1</v>
-      </c>
+      <c r="J29" s="17"/>
       <c r="K29" s="17"/>
       <c r="L29" s="17"/>
       <c r="M29" s="17"/>
@@ -1997,18 +2019,24 @@
       <c r="U29" s="17"/>
     </row>
     <row r="30" spans="1:21" ht="23">
-      <c r="A30" s="20" t="s">
-        <v>54</v>
-      </c>
+      <c r="A30" s="20"/>
       <c r="B30" s="21"/>
-      <c r="C30" s="22"/>
+      <c r="C30" s="22" t="s">
+        <v>39</v>
+      </c>
       <c r="D30" s="22"/>
-      <c r="E30" s="28"/>
-      <c r="F30" s="29"/>
+      <c r="E30" s="23" t="s">
+        <v>71</v>
+      </c>
+      <c r="F30" s="24" t="s">
+        <v>72</v>
+      </c>
       <c r="G30" s="25"/>
       <c r="H30" s="26"/>
       <c r="I30" s="17"/>
-      <c r="J30" s="17"/>
+      <c r="J30" s="17" t="b">
+        <v>1</v>
+      </c>
       <c r="K30" s="17"/>
       <c r="L30" s="17"/>
       <c r="M30" s="17"/>
@@ -2023,13 +2051,13 @@
     </row>
     <row r="31" spans="1:21" ht="23">
       <c r="A31" s="20" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="B31" s="21"/>
       <c r="C31" s="22"/>
       <c r="D31" s="22"/>
-      <c r="E31" s="23"/>
-      <c r="F31" s="24"/>
+      <c r="E31" s="28"/>
+      <c r="F31" s="29"/>
       <c r="G31" s="25"/>
       <c r="H31" s="26"/>
       <c r="I31" s="17"/>
@@ -2046,6 +2074,31 @@
       <c r="T31" s="17"/>
       <c r="U31" s="17"/>
     </row>
+    <row r="32" spans="1:21" ht="23">
+      <c r="A32" s="20" t="s">
+        <v>51</v>
+      </c>
+      <c r="B32" s="21"/>
+      <c r="C32" s="22"/>
+      <c r="D32" s="22"/>
+      <c r="E32" s="23"/>
+      <c r="F32" s="24"/>
+      <c r="G32" s="25"/>
+      <c r="H32" s="26"/>
+      <c r="I32" s="17"/>
+      <c r="J32" s="17"/>
+      <c r="K32" s="17"/>
+      <c r="L32" s="17"/>
+      <c r="M32" s="17"/>
+      <c r="N32" s="17"/>
+      <c r="O32" s="17"/>
+      <c r="P32" s="17"/>
+      <c r="Q32" s="17"/>
+      <c r="R32" s="17"/>
+      <c r="S32" s="17"/>
+      <c r="T32" s="17"/>
+      <c r="U32" s="17"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <extLst>
@@ -2060,7 +2113,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D28" sqref="D28"/>
     </sheetView>
   </sheetViews>
@@ -2068,54 +2121,54 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="A1" t="s">
+        <v>81</v>
+      </c>
+      <c r="B1" t="s">
+        <v>82</v>
+      </c>
+      <c r="C1" t="s">
+        <v>83</v>
+      </c>
+      <c r="D1" t="s">
         <v>84</v>
       </c>
-      <c r="B1" t="s">
+      <c r="E1" t="s">
         <v>85</v>
       </c>
-      <c r="C1" t="s">
+      <c r="F1" t="s">
         <v>86</v>
       </c>
-      <c r="D1" t="s">
+      <c r="G1" t="s">
         <v>87</v>
       </c>
-      <c r="E1" t="s">
+      <c r="H1" t="s">
         <v>88</v>
-      </c>
-      <c r="F1" t="s">
-        <v>89</v>
-      </c>
-      <c r="G1" t="s">
-        <v>90</v>
-      </c>
-      <c r="H1" t="s">
-        <v>91</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="18" customHeight="1">
       <c r="A2" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="B2" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="C2" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="D2" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="E2" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="F2" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="G2" t="s">
         <v>8</v>
       </c>
       <c r="H2" s="11" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -2143,7 +2196,7 @@
   <sheetData>
     <row r="1" spans="1:2" ht="30">
       <c r="A1" s="35" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="B1" s="35" t="s">
         <v>0</v>
@@ -2151,7 +2204,7 @@
     </row>
     <row r="2" spans="1:2" ht="45">
       <c r="A2" s="35" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="B2" s="35" t="s">
         <v>2</v>

--- a/app/config/tables/deployment/forms/deploy_to_specific/deploy_to_specific.xlsx
+++ b/app/config/tables/deployment/forms/deploy_to_specific/deploy_to_specific.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="27022"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16220" tabRatio="500" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16220" tabRatio="500" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="model" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="96">
   <si>
     <t>type</t>
   </si>
@@ -119,18 +119,9 @@
     <t>display.text</t>
   </si>
   <si>
-    <t>true_false</t>
-  </si>
-  <si>
-    <t>true</t>
-  </si>
-  <si>
     <t>yes</t>
   </si>
   <si>
-    <t>false</t>
-  </si>
-  <si>
     <t>no</t>
   </si>
   <si>
@@ -317,13 +308,10 @@
     <t>Please confirm or update item pack barcode.</t>
   </si>
   <si>
-    <t>max_range</t>
-  </si>
-  <si>
-    <t>min_range</t>
-  </si>
-  <si>
     <t>(data('item_pack_barcode') &gt; data('max_range')) || (data('item_pack_barcode') &lt; data('min_range'))</t>
+  </si>
+  <si>
+    <t>ranges</t>
   </si>
 </sst>
 </file>
@@ -900,10 +888,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B15"/>
+  <dimension ref="A1:B14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -954,7 +942,7 @@
     </row>
     <row r="6" spans="1:2" ht="23">
       <c r="A6" s="3" t="s">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="B6" s="4" t="s">
         <v>8</v>
@@ -962,7 +950,7 @@
     </row>
     <row r="7" spans="1:2" ht="23">
       <c r="A7" s="3" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="B7" s="4" t="s">
         <v>9</v>
@@ -1018,18 +1006,10 @@
     </row>
     <row r="14" spans="1:2" ht="23">
       <c r="A14" s="3" t="s">
-        <v>91</v>
+        <v>2</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" ht="23">
-      <c r="A15" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="B15" s="4" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
     </row>
   </sheetData>
@@ -1102,7 +1082,7 @@
       </c>
       <c r="B5" s="9"/>
       <c r="C5" s="10" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="23">
@@ -1126,10 +1106,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:C3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E31" sqref="E31"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -1147,46 +1127,24 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B2" t="s">
         <v>31</v>
       </c>
-      <c r="B2" s="11" t="s">
-        <v>32</v>
-      </c>
       <c r="C2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>31</v>
-      </c>
-      <c r="B3" s="11" t="s">
-        <v>34</v>
+        <v>33</v>
+      </c>
+      <c r="B3" t="s">
+        <v>32</v>
       </c>
       <c r="C3" t="s">
         <v>35</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
-      <c r="A4" t="s">
-        <v>36</v>
-      </c>
-      <c r="B4" t="s">
-        <v>33</v>
-      </c>
-      <c r="C4" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
-      <c r="A5" t="s">
-        <v>36</v>
-      </c>
-      <c r="B5" t="s">
-        <v>35</v>
-      </c>
-      <c r="C5" t="s">
-        <v>38</v>
       </c>
     </row>
   </sheetData>
@@ -1203,7 +1161,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
@@ -1222,16 +1180,16 @@
   <sheetData>
     <row r="1" spans="1:21" ht="23">
       <c r="A1" s="6" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="C1" s="30" t="s">
         <v>0</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="E1" s="31" t="s">
         <v>1</v>
@@ -1240,30 +1198,30 @@
         <v>30</v>
       </c>
       <c r="G1" s="33" t="s">
+        <v>73</v>
+      </c>
+      <c r="H1" s="34" t="s">
+        <v>74</v>
+      </c>
+      <c r="I1" t="s">
+        <v>75</v>
+      </c>
+      <c r="J1" t="s">
         <v>76</v>
-      </c>
-      <c r="H1" s="34" t="s">
-        <v>77</v>
-      </c>
-      <c r="I1" t="s">
-        <v>78</v>
-      </c>
-      <c r="J1" t="s">
-        <v>79</v>
       </c>
     </row>
     <row r="2" spans="1:21" ht="23">
       <c r="A2" s="12"/>
       <c r="B2" s="13"/>
       <c r="C2" s="14" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="D2" s="14"/>
       <c r="E2" s="15" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="F2" s="16" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="G2" s="18"/>
       <c r="H2" s="19"/>
@@ -1285,18 +1243,18 @@
       <c r="A3" s="20"/>
       <c r="B3" s="21"/>
       <c r="C3" s="22" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="D3" s="22"/>
       <c r="E3" s="23" t="s">
         <v>9</v>
       </c>
       <c r="F3" s="24" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="G3" s="25"/>
       <c r="H3" s="26" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="I3" s="17"/>
       <c r="J3" s="17"/>
@@ -1323,7 +1281,7 @@
         <v>9</v>
       </c>
       <c r="F4" s="24" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="G4" s="25"/>
       <c r="H4" s="26"/>
@@ -1343,10 +1301,10 @@
     </row>
     <row r="5" spans="1:21" ht="23">
       <c r="A5" s="20" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="B5" s="21" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="C5" s="22"/>
       <c r="D5" s="22"/>
@@ -1372,16 +1330,16 @@
       <c r="A6" s="20"/>
       <c r="B6" s="21"/>
       <c r="C6" s="22" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="D6" s="22" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="E6" s="23" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="F6" s="24" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="G6" s="25"/>
       <c r="H6" s="26"/>
@@ -1403,10 +1361,10 @@
     </row>
     <row r="7" spans="1:21" ht="23">
       <c r="A7" s="20" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="B7" s="21" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="C7" s="22"/>
       <c r="D7" s="22"/>
@@ -1430,7 +1388,7 @@
     </row>
     <row r="8" spans="1:21" ht="23">
       <c r="A8" s="20" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="B8" s="21"/>
       <c r="C8" s="22"/>
@@ -1455,7 +1413,7 @@
     </row>
     <row r="9" spans="1:21" ht="23">
       <c r="A9" s="20" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="B9" s="21"/>
       <c r="C9" s="22"/>
@@ -1480,7 +1438,7 @@
     </row>
     <row r="10" spans="1:21" ht="23">
       <c r="A10" s="20" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="B10" s="21"/>
       <c r="C10" s="22"/>
@@ -1507,12 +1465,12 @@
       <c r="A11" s="20"/>
       <c r="B11" s="21"/>
       <c r="C11" s="22" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="D11" s="22"/>
       <c r="E11" s="23"/>
       <c r="F11" s="24" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="G11" s="25"/>
       <c r="H11" s="26"/>
@@ -1534,14 +1492,14 @@
       <c r="A12" s="20"/>
       <c r="B12" s="21"/>
       <c r="C12" s="22" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="D12" s="22" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="E12" s="23"/>
       <c r="F12" s="24" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="G12" s="25"/>
       <c r="H12" s="26"/>
@@ -1561,7 +1519,7 @@
     </row>
     <row r="13" spans="1:21" ht="23">
       <c r="A13" s="20" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="B13" s="21"/>
       <c r="C13" s="22"/>
@@ -1586,7 +1544,7 @@
     </row>
     <row r="14" spans="1:21" ht="23">
       <c r="A14" s="20" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="B14" s="21"/>
       <c r="C14" s="22"/>
@@ -1613,12 +1571,12 @@
       <c r="A15" s="20"/>
       <c r="B15" s="21"/>
       <c r="C15" s="22" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="D15" s="22"/>
       <c r="E15" s="23"/>
       <c r="F15" s="24" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="26"/>
@@ -1640,10 +1598,10 @@
       <c r="A16" s="20"/>
       <c r="B16" s="21"/>
       <c r="C16" s="22" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="D16" s="22" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="E16" s="23" t="s">
         <v>8</v>
@@ -1690,7 +1648,7 @@
     </row>
     <row r="18" spans="1:21" ht="23">
       <c r="A18" s="20" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="B18" s="21"/>
       <c r="C18" s="22"/>
@@ -1715,10 +1673,10 @@
     </row>
     <row r="19" spans="1:21" ht="23">
       <c r="A19" s="20" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="B19" s="21" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="C19" s="22"/>
       <c r="D19" s="22"/>
@@ -1744,14 +1702,14 @@
       <c r="A20" s="20"/>
       <c r="B20" s="21"/>
       <c r="C20" s="22" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="D20" s="22"/>
       <c r="E20" s="23" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="F20" s="24" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="G20" s="25"/>
       <c r="H20" s="26"/>
@@ -1773,7 +1731,7 @@
       <c r="A21" s="20"/>
       <c r="B21" s="21"/>
       <c r="C21" s="22" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="D21" s="22"/>
       <c r="E21" s="23" t="s">
@@ -1783,7 +1741,7 @@
       <c r="G21" s="25"/>
       <c r="H21" s="26"/>
       <c r="I21" s="17" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="J21" s="17"/>
       <c r="K21" s="17"/>
@@ -1809,7 +1767,7 @@
         <v>7</v>
       </c>
       <c r="F22" s="24" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="G22" s="25"/>
       <c r="H22" s="26"/>
@@ -1838,7 +1796,7 @@
         <v>6</v>
       </c>
       <c r="F23" s="24" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="G23" s="25"/>
       <c r="H23" s="26"/>
@@ -1860,14 +1818,14 @@
       <c r="A24" s="20"/>
       <c r="B24" s="21"/>
       <c r="C24" s="22" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="D24" s="22"/>
       <c r="E24" s="23" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="F24" s="24" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="G24" s="25"/>
       <c r="H24" s="26"/>
@@ -1887,7 +1845,7 @@
     </row>
     <row r="25" spans="1:21" ht="23">
       <c r="A25" s="20" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="B25" s="21"/>
       <c r="C25" s="22"/>
@@ -1914,16 +1872,16 @@
       <c r="A26" s="20"/>
       <c r="B26" s="21"/>
       <c r="C26" s="22" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="D26" s="22" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="E26" s="23" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="F26" s="24" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="G26" s="25"/>
       <c r="H26" s="26"/>
@@ -1943,10 +1901,10 @@
     </row>
     <row r="27" spans="1:21" ht="23">
       <c r="A27" s="20" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="B27" s="21" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="C27" s="22"/>
       <c r="D27" s="22"/>
@@ -1970,7 +1928,7 @@
     </row>
     <row r="28" spans="1:21" ht="23">
       <c r="A28" s="20" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="B28" s="21"/>
       <c r="C28" s="22"/>
@@ -1995,7 +1953,7 @@
     </row>
     <row r="29" spans="1:21" ht="23">
       <c r="A29" s="20" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="B29" s="21"/>
       <c r="C29" s="22"/>
@@ -2022,14 +1980,14 @@
       <c r="A30" s="20"/>
       <c r="B30" s="21"/>
       <c r="C30" s="22" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="D30" s="22"/>
       <c r="E30" s="23" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="F30" s="24" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="G30" s="25"/>
       <c r="H30" s="26"/>
@@ -2051,7 +2009,7 @@
     </row>
     <row r="31" spans="1:21" ht="23">
       <c r="A31" s="20" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="B31" s="21"/>
       <c r="C31" s="22"/>
@@ -2076,7 +2034,7 @@
     </row>
     <row r="32" spans="1:21" ht="23">
       <c r="A32" s="20" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="B32" s="21"/>
       <c r="C32" s="22"/>
@@ -2121,54 +2079,54 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="A1" t="s">
+        <v>78</v>
+      </c>
+      <c r="B1" t="s">
+        <v>79</v>
+      </c>
+      <c r="C1" t="s">
+        <v>80</v>
+      </c>
+      <c r="D1" t="s">
         <v>81</v>
       </c>
-      <c r="B1" t="s">
+      <c r="E1" t="s">
         <v>82</v>
       </c>
-      <c r="C1" t="s">
+      <c r="F1" t="s">
         <v>83</v>
       </c>
-      <c r="D1" t="s">
+      <c r="G1" t="s">
         <v>84</v>
       </c>
-      <c r="E1" t="s">
+      <c r="H1" t="s">
         <v>85</v>
-      </c>
-      <c r="F1" t="s">
-        <v>86</v>
-      </c>
-      <c r="G1" t="s">
-        <v>87</v>
-      </c>
-      <c r="H1" t="s">
-        <v>88</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="18" customHeight="1">
       <c r="A2" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="B2" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="C2" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="D2" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="E2" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="F2" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="G2" t="s">
         <v>8</v>
       </c>
       <c r="H2" s="11" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -2196,7 +2154,7 @@
   <sheetData>
     <row r="1" spans="1:2" ht="30">
       <c r="A1" s="35" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="B1" s="35" t="s">
         <v>0</v>
@@ -2204,7 +2162,7 @@
     </row>
     <row r="2" spans="1:2" ht="45">
       <c r="A2" s="35" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="B2" s="35" t="s">
         <v>2</v>

--- a/app/config/tables/deployment/forms/deploy_to_specific/deploy_to_specific.xlsx
+++ b/app/config/tables/deployment/forms/deploy_to_specific/deploy_to_specific.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="27022"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16220" tabRatio="500" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16220" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="model" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="96">
   <si>
     <t>type</t>
   </si>
@@ -71,9 +71,6 @@
     <t>item_pack_name</t>
   </si>
   <si>
-    <t>boolean</t>
-  </si>
-  <si>
     <t>is_override</t>
   </si>
   <si>
@@ -312,6 +309,9 @@
   </si>
   <si>
     <t>ranges</t>
+  </si>
+  <si>
+    <t>item_description</t>
   </si>
 </sst>
 </file>
@@ -888,10 +888,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B14"/>
+  <dimension ref="A1:B15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -942,7 +942,7 @@
     </row>
     <row r="6" spans="1:2" ht="23">
       <c r="A6" s="3" t="s">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="B6" s="4" t="s">
         <v>8</v>
@@ -950,7 +950,7 @@
     </row>
     <row r="7" spans="1:2" ht="23">
       <c r="A7" s="3" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B7" s="4" t="s">
         <v>9</v>
@@ -998,10 +998,10 @@
     </row>
     <row r="13" spans="1:2" ht="23">
       <c r="A13" s="3" t="s">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>16</v>
+        <v>95</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="23">
@@ -1009,7 +1009,15 @@
         <v>2</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>95</v>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" ht="23">
+      <c r="A15" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>94</v>
       </c>
     </row>
   </sheetData>
@@ -1040,27 +1048,27 @@
   <sheetData>
     <row r="1" spans="1:3" ht="23">
       <c r="A1" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B1" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="C1" s="7" t="s">
         <v>18</v>
-      </c>
-      <c r="C1" s="7" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="23">
       <c r="A2" s="8" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C2" s="10"/>
     </row>
     <row r="3" spans="1:3" ht="23">
       <c r="A3" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B3" s="9">
         <v>20160822</v>
@@ -1069,28 +1077,28 @@
     </row>
     <row r="4" spans="1:3" ht="23">
       <c r="A4" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C4" s="10"/>
     </row>
     <row r="5" spans="1:3" ht="23">
       <c r="A5" s="8" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B5" s="9"/>
       <c r="C5" s="10" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="23">
       <c r="A6" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="B6" s="9" t="s">
         <v>25</v>
-      </c>
-      <c r="B6" s="9" t="s">
-        <v>26</v>
       </c>
       <c r="C6" s="10"/>
     </row>
@@ -1108,7 +1116,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
@@ -1116,35 +1124,35 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B1" t="s">
         <v>28</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>29</v>
-      </c>
-      <c r="C1" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C2" t="s">
         <v>33</v>
-      </c>
-      <c r="B2" t="s">
-        <v>31</v>
-      </c>
-      <c r="C2" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
   </sheetData>
@@ -1161,7 +1169,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U32"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A8" workbookViewId="0">
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
@@ -1180,48 +1188,48 @@
   <sheetData>
     <row r="1" spans="1:21" ht="23">
       <c r="A1" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="B1" s="6" t="s">
         <v>70</v>
-      </c>
-      <c r="B1" s="6" t="s">
-        <v>71</v>
       </c>
       <c r="C1" s="30" t="s">
         <v>0</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E1" s="31" t="s">
         <v>1</v>
       </c>
       <c r="F1" s="32" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G1" s="33" t="s">
+        <v>72</v>
+      </c>
+      <c r="H1" s="34" t="s">
         <v>73</v>
       </c>
-      <c r="H1" s="34" t="s">
+      <c r="I1" t="s">
         <v>74</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>75</v>
-      </c>
-      <c r="J1" t="s">
-        <v>76</v>
       </c>
     </row>
     <row r="2" spans="1:21" ht="23">
       <c r="A2" s="12"/>
       <c r="B2" s="13"/>
       <c r="C2" s="14" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D2" s="14"/>
       <c r="E2" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="F2" s="16" t="s">
         <v>37</v>
-      </c>
-      <c r="F2" s="16" t="s">
-        <v>38</v>
       </c>
       <c r="G2" s="18"/>
       <c r="H2" s="19"/>
@@ -1243,18 +1251,18 @@
       <c r="A3" s="20"/>
       <c r="B3" s="21"/>
       <c r="C3" s="22" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D3" s="22"/>
       <c r="E3" s="23" t="s">
         <v>9</v>
       </c>
       <c r="F3" s="24" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G3" s="25"/>
       <c r="H3" s="26" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="I3" s="17"/>
       <c r="J3" s="17"/>
@@ -1281,7 +1289,7 @@
         <v>9</v>
       </c>
       <c r="F4" s="24" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="G4" s="25"/>
       <c r="H4" s="26"/>
@@ -1301,10 +1309,10 @@
     </row>
     <row r="5" spans="1:21" ht="23">
       <c r="A5" s="20" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B5" s="21" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C5" s="22"/>
       <c r="D5" s="22"/>
@@ -1330,16 +1338,16 @@
       <c r="A6" s="20"/>
       <c r="B6" s="21"/>
       <c r="C6" s="22" t="s">
+        <v>42</v>
+      </c>
+      <c r="D6" s="22" t="s">
+        <v>32</v>
+      </c>
+      <c r="E6" s="23" t="s">
         <v>43</v>
       </c>
-      <c r="D6" s="22" t="s">
-        <v>33</v>
-      </c>
-      <c r="E6" s="23" t="s">
+      <c r="F6" s="24" t="s">
         <v>44</v>
-      </c>
-      <c r="F6" s="24" t="s">
-        <v>45</v>
       </c>
       <c r="G6" s="25"/>
       <c r="H6" s="26"/>
@@ -1361,10 +1369,10 @@
     </row>
     <row r="7" spans="1:21" ht="23">
       <c r="A7" s="20" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B7" s="21" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C7" s="22"/>
       <c r="D7" s="22"/>
@@ -1388,7 +1396,7 @@
     </row>
     <row r="8" spans="1:21" ht="23">
       <c r="A8" s="20" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B8" s="21"/>
       <c r="C8" s="22"/>
@@ -1413,7 +1421,7 @@
     </row>
     <row r="9" spans="1:21" ht="23">
       <c r="A9" s="20" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B9" s="21"/>
       <c r="C9" s="22"/>
@@ -1438,7 +1446,7 @@
     </row>
     <row r="10" spans="1:21" ht="23">
       <c r="A10" s="20" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B10" s="21"/>
       <c r="C10" s="22"/>
@@ -1465,12 +1473,12 @@
       <c r="A11" s="20"/>
       <c r="B11" s="21"/>
       <c r="C11" s="22" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D11" s="22"/>
       <c r="E11" s="23"/>
       <c r="F11" s="24" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G11" s="25"/>
       <c r="H11" s="26"/>
@@ -1492,14 +1500,14 @@
       <c r="A12" s="20"/>
       <c r="B12" s="21"/>
       <c r="C12" s="22" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D12" s="22" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E12" s="23"/>
       <c r="F12" s="24" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G12" s="25"/>
       <c r="H12" s="26"/>
@@ -1519,7 +1527,7 @@
     </row>
     <row r="13" spans="1:21" ht="23">
       <c r="A13" s="20" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B13" s="21"/>
       <c r="C13" s="22"/>
@@ -1544,7 +1552,7 @@
     </row>
     <row r="14" spans="1:21" ht="23">
       <c r="A14" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B14" s="21"/>
       <c r="C14" s="22"/>
@@ -1571,12 +1579,12 @@
       <c r="A15" s="20"/>
       <c r="B15" s="21"/>
       <c r="C15" s="22" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D15" s="22"/>
       <c r="E15" s="23"/>
       <c r="F15" s="24" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="26"/>
@@ -1598,10 +1606,10 @@
       <c r="A16" s="20"/>
       <c r="B16" s="21"/>
       <c r="C16" s="22" t="s">
+        <v>54</v>
+      </c>
+      <c r="D16" s="22" t="s">
         <v>55</v>
-      </c>
-      <c r="D16" s="22" t="s">
-        <v>56</v>
       </c>
       <c r="E16" s="23" t="s">
         <v>8</v>
@@ -1648,7 +1656,7 @@
     </row>
     <row r="18" spans="1:21" ht="23">
       <c r="A18" s="20" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B18" s="21"/>
       <c r="C18" s="22"/>
@@ -1673,10 +1681,10 @@
     </row>
     <row r="19" spans="1:21" ht="23">
       <c r="A19" s="20" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B19" s="21" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C19" s="22"/>
       <c r="D19" s="22"/>
@@ -1702,14 +1710,14 @@
       <c r="A20" s="20"/>
       <c r="B20" s="21"/>
       <c r="C20" s="22" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D20" s="22"/>
       <c r="E20" s="23" t="s">
+        <v>58</v>
+      </c>
+      <c r="F20" s="24" t="s">
         <v>59</v>
-      </c>
-      <c r="F20" s="24" t="s">
-        <v>60</v>
       </c>
       <c r="G20" s="25"/>
       <c r="H20" s="26"/>
@@ -1731,7 +1739,7 @@
       <c r="A21" s="20"/>
       <c r="B21" s="21"/>
       <c r="C21" s="22" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D21" s="22"/>
       <c r="E21" s="23" t="s">
@@ -1741,7 +1749,7 @@
       <c r="G21" s="25"/>
       <c r="H21" s="26"/>
       <c r="I21" s="17" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="J21" s="17"/>
       <c r="K21" s="17"/>
@@ -1767,7 +1775,7 @@
         <v>7</v>
       </c>
       <c r="F22" s="24" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G22" s="25"/>
       <c r="H22" s="26"/>
@@ -1796,7 +1804,7 @@
         <v>6</v>
       </c>
       <c r="F23" s="24" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G23" s="25"/>
       <c r="H23" s="26"/>
@@ -1818,14 +1826,14 @@
       <c r="A24" s="20"/>
       <c r="B24" s="21"/>
       <c r="C24" s="22" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D24" s="22"/>
       <c r="E24" s="23" t="s">
+        <v>64</v>
+      </c>
+      <c r="F24" s="24" t="s">
         <v>65</v>
-      </c>
-      <c r="F24" s="24" t="s">
-        <v>66</v>
       </c>
       <c r="G24" s="25"/>
       <c r="H24" s="26"/>
@@ -1845,7 +1853,7 @@
     </row>
     <row r="25" spans="1:21" ht="23">
       <c r="A25" s="20" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B25" s="21"/>
       <c r="C25" s="22"/>
@@ -1872,16 +1880,16 @@
       <c r="A26" s="20"/>
       <c r="B26" s="21"/>
       <c r="C26" s="22" t="s">
+        <v>42</v>
+      </c>
+      <c r="D26" s="22" t="s">
+        <v>32</v>
+      </c>
+      <c r="E26" s="23" t="s">
         <v>43</v>
       </c>
-      <c r="D26" s="22" t="s">
-        <v>33</v>
-      </c>
-      <c r="E26" s="23" t="s">
-        <v>44</v>
-      </c>
       <c r="F26" s="24" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="G26" s="25"/>
       <c r="H26" s="26"/>
@@ -1901,10 +1909,10 @@
     </row>
     <row r="27" spans="1:21" ht="23">
       <c r="A27" s="20" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B27" s="21" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C27" s="22"/>
       <c r="D27" s="22"/>
@@ -1928,7 +1936,7 @@
     </row>
     <row r="28" spans="1:21" ht="23">
       <c r="A28" s="20" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B28" s="21"/>
       <c r="C28" s="22"/>
@@ -1953,7 +1961,7 @@
     </row>
     <row r="29" spans="1:21" ht="23">
       <c r="A29" s="20" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B29" s="21"/>
       <c r="C29" s="22"/>
@@ -1980,14 +1988,14 @@
       <c r="A30" s="20"/>
       <c r="B30" s="21"/>
       <c r="C30" s="22" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D30" s="22"/>
       <c r="E30" s="23" t="s">
+        <v>67</v>
+      </c>
+      <c r="F30" s="24" t="s">
         <v>68</v>
-      </c>
-      <c r="F30" s="24" t="s">
-        <v>69</v>
       </c>
       <c r="G30" s="25"/>
       <c r="H30" s="26"/>
@@ -2009,7 +2017,7 @@
     </row>
     <row r="31" spans="1:21" ht="23">
       <c r="A31" s="20" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B31" s="21"/>
       <c r="C31" s="22"/>
@@ -2034,7 +2042,7 @@
     </row>
     <row r="32" spans="1:21" ht="23">
       <c r="A32" s="20" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B32" s="21"/>
       <c r="C32" s="22"/>
@@ -2079,54 +2087,54 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="A1" t="s">
+        <v>77</v>
+      </c>
+      <c r="B1" t="s">
         <v>78</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>79</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>80</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>81</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>82</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>83</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>84</v>
-      </c>
-      <c r="H1" t="s">
-        <v>85</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="18" customHeight="1">
       <c r="A2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G2" t="s">
         <v>8</v>
       </c>
       <c r="H2" s="11" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -2154,7 +2162,7 @@
   <sheetData>
     <row r="1" spans="1:2" ht="30">
       <c r="A1" s="35" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B1" s="35" t="s">
         <v>0</v>
@@ -2162,7 +2170,7 @@
     </row>
     <row r="2" spans="1:2" ht="45">
       <c r="A2" s="35" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B2" s="35" t="s">
         <v>2</v>

--- a/app/config/tables/deployment/forms/deploy_to_specific/deploy_to_specific.xlsx
+++ b/app/config/tables/deployment/forms/deploy_to_specific/deploy_to_specific.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="27022"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16220" tabRatio="500"/>
+    <workbookView xWindow="240" yWindow="240" windowWidth="25360" windowHeight="15820" tabRatio="500" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="model" sheetId="1" r:id="rId1"/>
@@ -13,6 +13,7 @@
     <sheet name="survey" sheetId="4" r:id="rId4"/>
     <sheet name="queries" sheetId="5" r:id="rId5"/>
     <sheet name="prompt_types" sheetId="6" r:id="rId6"/>
+    <sheet name="calculates" sheetId="7" r:id="rId7"/>
   </sheets>
   <calcPr calcId="140000" concurrentCalc="0"/>
   <extLst>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="107">
   <si>
     <t>type</t>
   </si>
@@ -143,9 +144,6 @@
     <t>barcode</t>
   </si>
   <si>
-    <t>Scan an item pack barcode within the range of {{data.min_range}} to {{data.max_range}}</t>
-  </si>
-  <si>
     <t>item_scan</t>
   </si>
   <si>
@@ -296,22 +294,81 @@
     <t>'beneficiary_code='+opendatakit.encodeURIDataElement('beneficiary_code')+ '&amp;_id='+opendatakit.encodeURIDataElement('distribution_id')</t>
   </si>
   <si>
-    <t>beneficiary_code = ? and distribution_id = ?</t>
-  </si>
-  <si>
     <t>set_is_distributed</t>
   </si>
   <si>
     <t>Please confirm or update item pack barcode.</t>
   </si>
   <si>
-    <t>(data('item_pack_barcode') &gt; data('max_range')) || (data('item_pack_barcode') &lt; data('min_range'))</t>
-  </si>
-  <si>
     <t>ranges</t>
   </si>
   <si>
     <t>item_description</t>
+  </si>
+  <si>
+    <t>calculation_name</t>
+  </si>
+  <si>
+    <t>parse_ranges</t>
+  </si>
+  <si>
+    <t>(function() {
+ var obj = JSON.parse(data('ranges'));
+ var str = '';
+ for (var i = 0; i &lt; obj.ranges.length - 1; i++) {
+  str += obj.ranges[i].min + ' to ' + obj.ranges[i].max + ',\n'
+ }
+ if (obj.ranges.length &gt; 1) {
+  str += 'or ';
+ }
+ str += obj.ranges[obj.ranges.length - 1].min + ' to ' + obj.ranges[obj.ranges.length - 1].max
+ return str;
+})()</t>
+  </si>
+  <si>
+    <t>summary</t>
+  </si>
+  <si>
+    <t>Scan an item pack barcode within the range of {{data.summary}}</t>
+  </si>
+  <si>
+    <t>calculates.parse_ranges()</t>
+  </si>
+  <si>
+    <t>in_range</t>
+  </si>
+  <si>
+    <t>valid</t>
+  </si>
+  <si>
+    <t>calculates.in_range()</t>
+  </si>
+  <si>
+    <t>data('valid') == 'false'</t>
+  </si>
+  <si>
+    <t>(function() {
+ var code = parseInt(data('item_pack_barcode'));
+ var json = JSON.parse(data('ranges'));
+ var valid = 'false';
+ var i = 0;
+ while (valid == 'false' &amp;&amp; i &lt; json.ranges.length) {
+  if ((json.ranges[i].min &lt;= code) &amp;&amp; (json.ranges[i].max &gt;= code)) {
+   valid = 'true';
+  }
+  i++;
+ }
+ return valid;
+})()</t>
+  </si>
+  <si>
+    <t>beneficiary_code = ? and _id = ?</t>
+  </si>
+  <si>
+    <t>scanned_item_pack</t>
+  </si>
+  <si>
+    <t>data('item_pack_barcode')</t>
   </si>
 </sst>
 </file>
@@ -511,8 +568,12 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
@@ -556,9 +617,13 @@
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="7">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -888,9 +953,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B15"/>
+  <dimension ref="A1:B16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
@@ -950,7 +1015,7 @@
     </row>
     <row r="7" spans="1:2" ht="23">
       <c r="A7" s="3" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B7" s="4" t="s">
         <v>9</v>
@@ -1001,7 +1066,7 @@
         <v>2</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="23">
@@ -1017,7 +1082,15 @@
         <v>2</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>94</v>
+        <v>91</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" ht="23">
+      <c r="A16" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B16" s="23" t="s">
+        <v>105</v>
       </c>
     </row>
   </sheetData>
@@ -1090,7 +1163,7 @@
       </c>
       <c r="B5" s="9"/>
       <c r="C5" s="10" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="23">
@@ -1167,10 +1240,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:U32"/>
+  <dimension ref="A1:U35"/>
   <sheetViews>
-    <sheetView topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -1188,16 +1261,16 @@
   <sheetData>
     <row r="1" spans="1:21" ht="23">
       <c r="A1" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="B1" s="6" t="s">
         <v>69</v>
-      </c>
-      <c r="B1" s="6" t="s">
-        <v>70</v>
       </c>
       <c r="C1" s="30" t="s">
         <v>0</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E1" s="31" t="s">
         <v>1</v>
@@ -1206,16 +1279,16 @@
         <v>29</v>
       </c>
       <c r="G1" s="33" t="s">
+        <v>71</v>
+      </c>
+      <c r="H1" s="34" t="s">
         <v>72</v>
       </c>
-      <c r="H1" s="34" t="s">
+      <c r="I1" t="s">
         <v>73</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>74</v>
-      </c>
-      <c r="J1" t="s">
-        <v>75</v>
       </c>
     </row>
     <row r="2" spans="1:21" ht="23">
@@ -1251,21 +1324,21 @@
       <c r="A3" s="20"/>
       <c r="B3" s="21"/>
       <c r="C3" s="22" t="s">
-        <v>38</v>
+        <v>59</v>
       </c>
       <c r="D3" s="22"/>
       <c r="E3" s="23" t="s">
-        <v>9</v>
-      </c>
-      <c r="F3" s="24" t="s">
-        <v>39</v>
-      </c>
+        <v>96</v>
+      </c>
+      <c r="F3" s="24"/>
       <c r="G3" s="25"/>
-      <c r="H3" s="26" t="s">
-        <v>40</v>
-      </c>
-      <c r="I3" s="17"/>
-      <c r="J3" s="17"/>
+      <c r="H3" s="26"/>
+      <c r="I3" s="17" t="s">
+        <v>98</v>
+      </c>
+      <c r="J3" s="17" t="b">
+        <v>1</v>
+      </c>
       <c r="K3" s="17"/>
       <c r="L3" s="17"/>
       <c r="M3" s="17"/>
@@ -1282,19 +1355,23 @@
       <c r="A4" s="20"/>
       <c r="B4" s="21"/>
       <c r="C4" s="22" t="s">
-        <v>2</v>
+        <v>38</v>
       </c>
       <c r="D4" s="22"/>
       <c r="E4" s="23" t="s">
         <v>9</v>
       </c>
       <c r="F4" s="24" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="G4" s="25"/>
-      <c r="H4" s="26"/>
+      <c r="H4" s="26" t="s">
+        <v>39</v>
+      </c>
       <c r="I4" s="17"/>
-      <c r="J4" s="17"/>
+      <c r="J4" s="17" t="b">
+        <v>1</v>
+      </c>
       <c r="K4" s="17"/>
       <c r="L4" s="17"/>
       <c r="M4" s="17"/>
@@ -1308,20 +1385,24 @@
       <c r="U4" s="17"/>
     </row>
     <row r="5" spans="1:21" ht="23">
-      <c r="A5" s="20" t="s">
-        <v>41</v>
-      </c>
-      <c r="B5" s="21" t="s">
-        <v>93</v>
-      </c>
-      <c r="C5" s="22"/>
+      <c r="A5" s="20"/>
+      <c r="B5" s="21"/>
+      <c r="C5" s="22" t="s">
+        <v>2</v>
+      </c>
       <c r="D5" s="22"/>
-      <c r="E5" s="23"/>
-      <c r="F5" s="24"/>
+      <c r="E5" s="23" t="s">
+        <v>9</v>
+      </c>
+      <c r="F5" s="24" t="s">
+        <v>90</v>
+      </c>
       <c r="G5" s="25"/>
       <c r="H5" s="26"/>
-      <c r="I5" s="18"/>
-      <c r="J5" s="17"/>
+      <c r="I5" s="17"/>
+      <c r="J5" s="17" t="b">
+        <v>1</v>
+      </c>
       <c r="K5" s="17"/>
       <c r="L5" s="17"/>
       <c r="M5" s="17"/>
@@ -1338,20 +1419,18 @@
       <c r="A6" s="20"/>
       <c r="B6" s="21"/>
       <c r="C6" s="22" t="s">
-        <v>42</v>
-      </c>
-      <c r="D6" s="22" t="s">
-        <v>32</v>
-      </c>
+        <v>59</v>
+      </c>
+      <c r="D6" s="22"/>
       <c r="E6" s="23" t="s">
-        <v>43</v>
-      </c>
-      <c r="F6" s="24" t="s">
-        <v>44</v>
-      </c>
+        <v>100</v>
+      </c>
+      <c r="F6" s="24"/>
       <c r="G6" s="25"/>
       <c r="H6" s="26"/>
-      <c r="I6" s="25"/>
+      <c r="I6" s="17" t="s">
+        <v>101</v>
+      </c>
       <c r="J6" s="17" t="b">
         <v>1</v>
       </c>
@@ -1369,10 +1448,10 @@
     </row>
     <row r="7" spans="1:21" ht="23">
       <c r="A7" s="20" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B7" s="21" t="s">
-        <v>45</v>
+        <v>102</v>
       </c>
       <c r="C7" s="22"/>
       <c r="D7" s="22"/>
@@ -1380,7 +1459,7 @@
       <c r="F7" s="24"/>
       <c r="G7" s="25"/>
       <c r="H7" s="26"/>
-      <c r="I7" s="25"/>
+      <c r="I7" s="18"/>
       <c r="J7" s="17"/>
       <c r="K7" s="17"/>
       <c r="L7" s="17"/>
@@ -1395,18 +1474,26 @@
       <c r="U7" s="17"/>
     </row>
     <row r="8" spans="1:21" ht="23">
-      <c r="A8" s="20" t="s">
-        <v>46</v>
-      </c>
+      <c r="A8" s="20"/>
       <c r="B8" s="21"/>
-      <c r="C8" s="22"/>
-      <c r="D8" s="22"/>
-      <c r="E8" s="23"/>
-      <c r="F8" s="24"/>
+      <c r="C8" s="22" t="s">
+        <v>41</v>
+      </c>
+      <c r="D8" s="22" t="s">
+        <v>32</v>
+      </c>
+      <c r="E8" s="23" t="s">
+        <v>42</v>
+      </c>
+      <c r="F8" s="24" t="s">
+        <v>43</v>
+      </c>
       <c r="G8" s="25"/>
       <c r="H8" s="26"/>
       <c r="I8" s="25"/>
-      <c r="J8" s="17"/>
+      <c r="J8" s="17" t="b">
+        <v>1</v>
+      </c>
       <c r="K8" s="17"/>
       <c r="L8" s="17"/>
       <c r="M8" s="17"/>
@@ -1421,9 +1508,11 @@
     </row>
     <row r="9" spans="1:21" ht="23">
       <c r="A9" s="20" t="s">
-        <v>47</v>
-      </c>
-      <c r="B9" s="21"/>
+        <v>40</v>
+      </c>
+      <c r="B9" s="21" t="s">
+        <v>44</v>
+      </c>
       <c r="C9" s="22"/>
       <c r="D9" s="22"/>
       <c r="E9" s="23"/>
@@ -1446,7 +1535,7 @@
     </row>
     <row r="10" spans="1:21" ht="23">
       <c r="A10" s="20" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="B10" s="21"/>
       <c r="C10" s="22"/>
@@ -1470,16 +1559,14 @@
       <c r="U10" s="17"/>
     </row>
     <row r="11" spans="1:21" ht="23">
-      <c r="A11" s="20"/>
+      <c r="A11" s="20" t="s">
+        <v>46</v>
+      </c>
       <c r="B11" s="21"/>
-      <c r="C11" s="22" t="s">
-        <v>35</v>
-      </c>
+      <c r="C11" s="22"/>
       <c r="D11" s="22"/>
       <c r="E11" s="23"/>
-      <c r="F11" s="24" t="s">
-        <v>49</v>
-      </c>
+      <c r="F11" s="24"/>
       <c r="G11" s="25"/>
       <c r="H11" s="26"/>
       <c r="I11" s="25"/>
@@ -1497,21 +1584,17 @@
       <c r="U11" s="17"/>
     </row>
     <row r="12" spans="1:21" ht="23">
-      <c r="A12" s="20"/>
+      <c r="A12" s="20" t="s">
+        <v>47</v>
+      </c>
       <c r="B12" s="21"/>
-      <c r="C12" s="22" t="s">
-        <v>50</v>
-      </c>
-      <c r="D12" s="22" t="s">
-        <v>55</v>
-      </c>
+      <c r="C12" s="22"/>
+      <c r="D12" s="22"/>
       <c r="E12" s="23"/>
-      <c r="F12" s="24" t="s">
-        <v>51</v>
-      </c>
+      <c r="F12" s="24"/>
       <c r="G12" s="25"/>
       <c r="H12" s="26"/>
-      <c r="I12" s="17"/>
+      <c r="I12" s="25"/>
       <c r="J12" s="17"/>
       <c r="K12" s="17"/>
       <c r="L12" s="17"/>
@@ -1526,17 +1609,19 @@
       <c r="U12" s="17"/>
     </row>
     <row r="13" spans="1:21" ht="23">
-      <c r="A13" s="20" t="s">
-        <v>47</v>
-      </c>
+      <c r="A13" s="20"/>
       <c r="B13" s="21"/>
-      <c r="C13" s="22"/>
+      <c r="C13" s="22" t="s">
+        <v>35</v>
+      </c>
       <c r="D13" s="22"/>
       <c r="E13" s="23"/>
-      <c r="F13" s="24"/>
+      <c r="F13" s="24" t="s">
+        <v>48</v>
+      </c>
       <c r="G13" s="25"/>
       <c r="H13" s="26"/>
-      <c r="I13" s="18"/>
+      <c r="I13" s="25"/>
       <c r="J13" s="17"/>
       <c r="K13" s="17"/>
       <c r="L13" s="17"/>
@@ -1551,17 +1636,21 @@
       <c r="U13" s="17"/>
     </row>
     <row r="14" spans="1:21" ht="23">
-      <c r="A14" s="20" t="s">
-        <v>52</v>
-      </c>
+      <c r="A14" s="20"/>
       <c r="B14" s="21"/>
-      <c r="C14" s="22"/>
-      <c r="D14" s="22"/>
+      <c r="C14" s="22" t="s">
+        <v>49</v>
+      </c>
+      <c r="D14" s="22" t="s">
+        <v>54</v>
+      </c>
       <c r="E14" s="23"/>
-      <c r="F14" s="24"/>
+      <c r="F14" s="24" t="s">
+        <v>50</v>
+      </c>
       <c r="G14" s="25"/>
       <c r="H14" s="26"/>
-      <c r="I14" s="27"/>
+      <c r="I14" s="17"/>
       <c r="J14" s="17"/>
       <c r="K14" s="17"/>
       <c r="L14" s="17"/>
@@ -1576,19 +1665,17 @@
       <c r="U14" s="17"/>
     </row>
     <row r="15" spans="1:21" ht="23">
-      <c r="A15" s="20"/>
+      <c r="A15" s="20" t="s">
+        <v>46</v>
+      </c>
       <c r="B15" s="21"/>
-      <c r="C15" s="22" t="s">
-        <v>35</v>
-      </c>
+      <c r="C15" s="22"/>
       <c r="D15" s="22"/>
       <c r="E15" s="23"/>
-      <c r="F15" s="24" t="s">
-        <v>53</v>
-      </c>
+      <c r="F15" s="24"/>
       <c r="G15" s="25"/>
       <c r="H15" s="26"/>
-      <c r="I15" s="27"/>
+      <c r="I15" s="18"/>
       <c r="J15" s="17"/>
       <c r="K15" s="17"/>
       <c r="L15" s="17"/>
@@ -1603,21 +1690,17 @@
       <c r="U15" s="17"/>
     </row>
     <row r="16" spans="1:21" ht="23">
-      <c r="A16" s="20"/>
+      <c r="A16" s="20" t="s">
+        <v>51</v>
+      </c>
       <c r="B16" s="21"/>
-      <c r="C16" s="22" t="s">
-        <v>54</v>
-      </c>
-      <c r="D16" s="22" t="s">
-        <v>55</v>
-      </c>
-      <c r="E16" s="23" t="s">
-        <v>8</v>
-      </c>
+      <c r="C16" s="22"/>
+      <c r="D16" s="22"/>
+      <c r="E16" s="23"/>
       <c r="F16" s="24"/>
       <c r="G16" s="25"/>
       <c r="H16" s="26"/>
-      <c r="I16" s="17"/>
+      <c r="I16" s="27"/>
       <c r="J16" s="17"/>
       <c r="K16" s="17"/>
       <c r="L16" s="17"/>
@@ -1634,10 +1717,14 @@
     <row r="17" spans="1:21" ht="23">
       <c r="A17" s="20"/>
       <c r="B17" s="21"/>
-      <c r="C17" s="22"/>
+      <c r="C17" s="22" t="s">
+        <v>35</v>
+      </c>
       <c r="D17" s="22"/>
       <c r="E17" s="23"/>
-      <c r="F17" s="24"/>
+      <c r="F17" s="24" t="s">
+        <v>52</v>
+      </c>
       <c r="G17" s="25"/>
       <c r="H17" s="26"/>
       <c r="I17" s="27"/>
@@ -1655,17 +1742,21 @@
       <c r="U17" s="17"/>
     </row>
     <row r="18" spans="1:21" ht="23">
-      <c r="A18" s="20" t="s">
-        <v>56</v>
-      </c>
+      <c r="A18" s="20"/>
       <c r="B18" s="21"/>
-      <c r="C18" s="22"/>
-      <c r="D18" s="22"/>
-      <c r="E18" s="23"/>
+      <c r="C18" s="22" t="s">
+        <v>53</v>
+      </c>
+      <c r="D18" s="22" t="s">
+        <v>54</v>
+      </c>
+      <c r="E18" s="23" t="s">
+        <v>8</v>
+      </c>
       <c r="F18" s="24"/>
       <c r="G18" s="25"/>
       <c r="H18" s="26"/>
-      <c r="I18" s="27"/>
+      <c r="I18" s="17"/>
       <c r="J18" s="17"/>
       <c r="K18" s="17"/>
       <c r="L18" s="17"/>
@@ -1680,19 +1771,15 @@
       <c r="U18" s="17"/>
     </row>
     <row r="19" spans="1:21" ht="23">
-      <c r="A19" s="20" t="s">
-        <v>41</v>
-      </c>
-      <c r="B19" s="21" t="s">
-        <v>57</v>
-      </c>
+      <c r="A19" s="20"/>
+      <c r="B19" s="21"/>
       <c r="C19" s="22"/>
       <c r="D19" s="22"/>
       <c r="E19" s="23"/>
       <c r="F19" s="24"/>
       <c r="G19" s="25"/>
       <c r="H19" s="26"/>
-      <c r="I19" s="17"/>
+      <c r="I19" s="27"/>
       <c r="J19" s="17"/>
       <c r="K19" s="17"/>
       <c r="L19" s="17"/>
@@ -1707,21 +1794,17 @@
       <c r="U19" s="17"/>
     </row>
     <row r="20" spans="1:21" ht="23">
-      <c r="A20" s="20"/>
+      <c r="A20" s="20" t="s">
+        <v>55</v>
+      </c>
       <c r="B20" s="21"/>
-      <c r="C20" s="22" t="s">
-        <v>35</v>
-      </c>
+      <c r="C20" s="22"/>
       <c r="D20" s="22"/>
-      <c r="E20" s="23" t="s">
-        <v>58</v>
-      </c>
-      <c r="F20" s="24" t="s">
-        <v>59</v>
-      </c>
+      <c r="E20" s="23"/>
+      <c r="F20" s="24"/>
       <c r="G20" s="25"/>
       <c r="H20" s="26"/>
-      <c r="I20" s="17"/>
+      <c r="I20" s="27"/>
       <c r="J20" s="17"/>
       <c r="K20" s="17"/>
       <c r="L20" s="17"/>
@@ -1736,21 +1819,19 @@
       <c r="U20" s="17"/>
     </row>
     <row r="21" spans="1:21" ht="23">
-      <c r="A21" s="20"/>
-      <c r="B21" s="21"/>
-      <c r="C21" s="22" t="s">
-        <v>60</v>
-      </c>
+      <c r="A21" s="20" t="s">
+        <v>40</v>
+      </c>
+      <c r="B21" s="21" t="s">
+        <v>56</v>
+      </c>
+      <c r="C21" s="22"/>
       <c r="D21" s="22"/>
-      <c r="E21" s="23" t="s">
-        <v>5</v>
-      </c>
+      <c r="E21" s="23"/>
       <c r="F21" s="24"/>
       <c r="G21" s="25"/>
       <c r="H21" s="26"/>
-      <c r="I21" s="17" t="s">
-        <v>61</v>
-      </c>
+      <c r="I21" s="17"/>
       <c r="J21" s="17"/>
       <c r="K21" s="17"/>
       <c r="L21" s="17"/>
@@ -1768,18 +1849,18 @@
       <c r="A22" s="20"/>
       <c r="B22" s="21"/>
       <c r="C22" s="22" t="s">
-        <v>2</v>
+        <v>59</v>
       </c>
       <c r="D22" s="22"/>
       <c r="E22" s="23" t="s">
-        <v>7</v>
-      </c>
-      <c r="F22" s="24" t="s">
-        <v>62</v>
-      </c>
+        <v>105</v>
+      </c>
+      <c r="F22" s="24"/>
       <c r="G22" s="25"/>
       <c r="H22" s="26"/>
-      <c r="I22" s="17"/>
+      <c r="I22" s="17" t="s">
+        <v>106</v>
+      </c>
       <c r="J22" s="17"/>
       <c r="K22" s="17"/>
       <c r="L22" s="17"/>
@@ -1797,14 +1878,14 @@
       <c r="A23" s="20"/>
       <c r="B23" s="21"/>
       <c r="C23" s="22" t="s">
-        <v>2</v>
+        <v>35</v>
       </c>
       <c r="D23" s="22"/>
       <c r="E23" s="23" t="s">
-        <v>6</v>
+        <v>57</v>
       </c>
       <c r="F23" s="24" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="G23" s="25"/>
       <c r="H23" s="26"/>
@@ -1826,18 +1907,18 @@
       <c r="A24" s="20"/>
       <c r="B24" s="21"/>
       <c r="C24" s="22" t="s">
-        <v>35</v>
+        <v>59</v>
       </c>
       <c r="D24" s="22"/>
       <c r="E24" s="23" t="s">
-        <v>64</v>
-      </c>
-      <c r="F24" s="24" t="s">
-        <v>65</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="F24" s="24"/>
       <c r="G24" s="25"/>
       <c r="H24" s="26"/>
-      <c r="I24" s="17"/>
+      <c r="I24" s="17" t="s">
+        <v>60</v>
+      </c>
       <c r="J24" s="17"/>
       <c r="K24" s="17"/>
       <c r="L24" s="17"/>
@@ -1852,14 +1933,18 @@
       <c r="U24" s="17"/>
     </row>
     <row r="25" spans="1:21" ht="23">
-      <c r="A25" s="20" t="s">
-        <v>48</v>
-      </c>
+      <c r="A25" s="20"/>
       <c r="B25" s="21"/>
-      <c r="C25" s="22"/>
+      <c r="C25" s="22" t="s">
+        <v>2</v>
+      </c>
       <c r="D25" s="22"/>
-      <c r="E25" s="23"/>
-      <c r="F25" s="24"/>
+      <c r="E25" s="23" t="s">
+        <v>7</v>
+      </c>
+      <c r="F25" s="24" t="s">
+        <v>61</v>
+      </c>
       <c r="G25" s="25"/>
       <c r="H25" s="26"/>
       <c r="I25" s="17"/>
@@ -1880,16 +1965,14 @@
       <c r="A26" s="20"/>
       <c r="B26" s="21"/>
       <c r="C26" s="22" t="s">
-        <v>42</v>
-      </c>
-      <c r="D26" s="22" t="s">
-        <v>32</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="D26" s="22"/>
       <c r="E26" s="23" t="s">
-        <v>43</v>
+        <v>6</v>
       </c>
       <c r="F26" s="24" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="G26" s="25"/>
       <c r="H26" s="26"/>
@@ -1908,16 +1991,18 @@
       <c r="U26" s="17"/>
     </row>
     <row r="27" spans="1:21" ht="23">
-      <c r="A27" s="20" t="s">
-        <v>41</v>
-      </c>
-      <c r="B27" s="21" t="s">
-        <v>45</v>
-      </c>
-      <c r="C27" s="22"/>
+      <c r="A27" s="20"/>
+      <c r="B27" s="21"/>
+      <c r="C27" s="22" t="s">
+        <v>35</v>
+      </c>
       <c r="D27" s="22"/>
-      <c r="E27" s="23"/>
-      <c r="F27" s="24"/>
+      <c r="E27" s="23" t="s">
+        <v>63</v>
+      </c>
+      <c r="F27" s="24" t="s">
+        <v>64</v>
+      </c>
       <c r="G27" s="25"/>
       <c r="H27" s="26"/>
       <c r="I27" s="17"/>
@@ -1936,7 +2021,7 @@
     </row>
     <row r="28" spans="1:21" ht="23">
       <c r="A28" s="20" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B28" s="21"/>
       <c r="C28" s="22"/>
@@ -1960,14 +2045,20 @@
       <c r="U28" s="17"/>
     </row>
     <row r="29" spans="1:21" ht="23">
-      <c r="A29" s="20" t="s">
-        <v>48</v>
-      </c>
+      <c r="A29" s="20"/>
       <c r="B29" s="21"/>
-      <c r="C29" s="22"/>
-      <c r="D29" s="22"/>
-      <c r="E29" s="23"/>
-      <c r="F29" s="24"/>
+      <c r="C29" s="22" t="s">
+        <v>41</v>
+      </c>
+      <c r="D29" s="22" t="s">
+        <v>32</v>
+      </c>
+      <c r="E29" s="23" t="s">
+        <v>42</v>
+      </c>
+      <c r="F29" s="24" t="s">
+        <v>65</v>
+      </c>
       <c r="G29" s="25"/>
       <c r="H29" s="26"/>
       <c r="I29" s="17"/>
@@ -1985,24 +2076,20 @@
       <c r="U29" s="17"/>
     </row>
     <row r="30" spans="1:21" ht="23">
-      <c r="A30" s="20"/>
-      <c r="B30" s="21"/>
-      <c r="C30" s="22" t="s">
-        <v>35</v>
-      </c>
+      <c r="A30" s="20" t="s">
+        <v>40</v>
+      </c>
+      <c r="B30" s="21" t="s">
+        <v>44</v>
+      </c>
+      <c r="C30" s="22"/>
       <c r="D30" s="22"/>
-      <c r="E30" s="23" t="s">
-        <v>67</v>
-      </c>
-      <c r="F30" s="24" t="s">
-        <v>68</v>
-      </c>
+      <c r="E30" s="23"/>
+      <c r="F30" s="24"/>
       <c r="G30" s="25"/>
       <c r="H30" s="26"/>
       <c r="I30" s="17"/>
-      <c r="J30" s="17" t="b">
-        <v>1</v>
-      </c>
+      <c r="J30" s="17"/>
       <c r="K30" s="17"/>
       <c r="L30" s="17"/>
       <c r="M30" s="17"/>
@@ -2017,13 +2104,13 @@
     </row>
     <row r="31" spans="1:21" ht="23">
       <c r="A31" s="20" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B31" s="21"/>
       <c r="C31" s="22"/>
       <c r="D31" s="22"/>
-      <c r="E31" s="28"/>
-      <c r="F31" s="29"/>
+      <c r="E31" s="23"/>
+      <c r="F31" s="24"/>
       <c r="G31" s="25"/>
       <c r="H31" s="26"/>
       <c r="I31" s="17"/>
@@ -2065,8 +2152,90 @@
       <c r="T32" s="17"/>
       <c r="U32" s="17"/>
     </row>
+    <row r="33" spans="1:21" ht="23">
+      <c r="A33" s="20"/>
+      <c r="B33" s="21"/>
+      <c r="C33" s="22" t="s">
+        <v>35</v>
+      </c>
+      <c r="D33" s="22"/>
+      <c r="E33" s="23" t="s">
+        <v>66</v>
+      </c>
+      <c r="F33" s="24" t="s">
+        <v>67</v>
+      </c>
+      <c r="G33" s="25"/>
+      <c r="H33" s="26"/>
+      <c r="I33" s="17"/>
+      <c r="J33" s="17" t="b">
+        <v>1</v>
+      </c>
+      <c r="K33" s="17"/>
+      <c r="L33" s="17"/>
+      <c r="M33" s="17"/>
+      <c r="N33" s="17"/>
+      <c r="O33" s="17"/>
+      <c r="P33" s="17"/>
+      <c r="Q33" s="17"/>
+      <c r="R33" s="17"/>
+      <c r="S33" s="17"/>
+      <c r="T33" s="17"/>
+      <c r="U33" s="17"/>
+    </row>
+    <row r="34" spans="1:21" ht="23">
+      <c r="A34" s="20" t="s">
+        <v>46</v>
+      </c>
+      <c r="B34" s="21"/>
+      <c r="C34" s="22"/>
+      <c r="D34" s="22"/>
+      <c r="E34" s="28"/>
+      <c r="F34" s="29"/>
+      <c r="G34" s="25"/>
+      <c r="H34" s="26"/>
+      <c r="I34" s="17"/>
+      <c r="J34" s="17"/>
+      <c r="K34" s="17"/>
+      <c r="L34" s="17"/>
+      <c r="M34" s="17"/>
+      <c r="N34" s="17"/>
+      <c r="O34" s="17"/>
+      <c r="P34" s="17"/>
+      <c r="Q34" s="17"/>
+      <c r="R34" s="17"/>
+      <c r="S34" s="17"/>
+      <c r="T34" s="17"/>
+      <c r="U34" s="17"/>
+    </row>
+    <row r="35" spans="1:21" ht="23">
+      <c r="A35" s="20" t="s">
+        <v>46</v>
+      </c>
+      <c r="B35" s="21"/>
+      <c r="C35" s="22"/>
+      <c r="D35" s="22"/>
+      <c r="E35" s="23"/>
+      <c r="F35" s="24"/>
+      <c r="G35" s="25"/>
+      <c r="H35" s="26"/>
+      <c r="I35" s="17"/>
+      <c r="J35" s="17"/>
+      <c r="K35" s="17"/>
+      <c r="L35" s="17"/>
+      <c r="M35" s="17"/>
+      <c r="N35" s="17"/>
+      <c r="O35" s="17"/>
+      <c r="P35" s="17"/>
+      <c r="Q35" s="17"/>
+      <c r="R35" s="17"/>
+      <c r="S35" s="17"/>
+      <c r="T35" s="17"/>
+      <c r="U35" s="17"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
@@ -2080,61 +2249,61 @@
   <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D28" sqref="D28"/>
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <sheetData>
     <row r="1" spans="1:8">
       <c r="A1" t="s">
+        <v>76</v>
+      </c>
+      <c r="B1" t="s">
         <v>77</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>78</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>79</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>80</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>81</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>82</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>83</v>
-      </c>
-      <c r="H1" t="s">
-        <v>84</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="18" customHeight="1">
       <c r="A2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C2" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="D2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E2" t="s">
-        <v>90</v>
+        <v>104</v>
       </c>
       <c r="F2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="G2" t="s">
         <v>8</v>
       </c>
       <c r="H2" s="11" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -2162,7 +2331,7 @@
   <sheetData>
     <row r="1" spans="1:2" ht="30">
       <c r="A1" s="35" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B1" s="35" t="s">
         <v>0</v>
@@ -2170,10 +2339,57 @@
     </row>
     <row r="2" spans="1:2" ht="45">
       <c r="A2" s="35" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B2" s="35" t="s">
         <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="2" max="2" width="67.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" t="s">
+        <v>93</v>
+      </c>
+      <c r="B1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="195">
+      <c r="A2" t="s">
+        <v>94</v>
+      </c>
+      <c r="B2" s="35" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="195">
+      <c r="A3" t="s">
+        <v>99</v>
+      </c>
+      <c r="B3" s="35" t="s">
+        <v>103</v>
       </c>
     </row>
   </sheetData>
